--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-16 07:46:21</t>
+    <t xml:space="preserve">2021-08-16 13:24:16</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -1462,16 +1462,16 @@
         <v>10.6184289421938</v>
       </c>
       <c r="H2" t="n">
-        <v>0.285854353434334</v>
+        <v>0.314484692280681</v>
       </c>
       <c r="I2" t="n">
-        <v>1.24018181508678</v>
+        <v>1.36504279570389</v>
       </c>
       <c r="J2" t="n">
-        <v>0.314484692280681</v>
+        <v>0.995777355639804</v>
       </c>
       <c r="K2" t="n">
-        <v>0.104718532771164</v>
+        <v>0.887211973461488</v>
       </c>
     </row>
     <row r="3">
@@ -1495,16 +1495,16 @@
         <v>37.9300547752771</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17295053906556</v>
+        <v>1.29099964213424</v>
       </c>
       <c r="I3" t="n">
-        <v>2.57370896346518</v>
+        <v>2.83469525693971</v>
       </c>
       <c r="J3" t="n">
-        <v>1.29099964213424</v>
+        <v>1.1775827864235</v>
       </c>
       <c r="K3" t="n">
-        <v>0.428494516047628</v>
+        <v>1.78527699058815</v>
       </c>
     </row>
     <row r="4">
@@ -1528,16 +1528,16 @@
         <v>0.692236336011965</v>
       </c>
       <c r="H4" t="n">
-        <v>5.65364766741729</v>
+        <v>6.23630206658874</v>
       </c>
       <c r="I4" t="n">
-        <v>2.07644456913896</v>
+        <v>2.28644578995516</v>
       </c>
       <c r="J4" t="n">
-        <v>6.23630206658874</v>
+        <v>0.572445739829575</v>
       </c>
       <c r="K4" t="n">
-        <v>2.03699224262801</v>
+        <v>3.08952351408778</v>
       </c>
     </row>
     <row r="5">
@@ -1561,16 +1561,16 @@
         <v>51.7733977910011</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97907507706454</v>
+        <v>1.07750826676187</v>
       </c>
       <c r="I5" t="n">
-        <v>2.19136720249473</v>
+        <v>2.41312788764556</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07750826676187</v>
+        <v>1.13376950436059</v>
       </c>
       <c r="K5" t="n">
-        <v>0.357887062780171</v>
+        <v>1.55362379645492</v>
       </c>
     </row>
     <row r="6">
@@ -1594,16 +1594,16 @@
         <v>2.53267773751827</v>
       </c>
       <c r="H6" t="n">
-        <v>0.639038304983086</v>
+        <v>0.703166309668291</v>
       </c>
       <c r="I6" t="n">
-        <v>0.997292111332237</v>
+        <v>1.09756671889707</v>
       </c>
       <c r="J6" t="n">
-        <v>0.703166309668291</v>
+        <v>1.21966932213784</v>
       </c>
       <c r="K6" t="n">
-        <v>0.23384152507131</v>
+        <v>0.999219517967798</v>
       </c>
     </row>
   </sheetData>
@@ -1678,16 +1678,16 @@
         <v>5.01078496440662</v>
       </c>
       <c r="H2" t="n">
-        <v>1.85926410075774</v>
+        <v>2.04708127322584</v>
       </c>
       <c r="I2" t="n">
-        <v>2.29097240118523</v>
+        <v>2.52293671929331</v>
       </c>
       <c r="J2" t="n">
-        <v>2.04708127322584</v>
+        <v>1.5328985138181</v>
       </c>
       <c r="K2" t="n">
-        <v>0.677756507899141</v>
+        <v>2.05081069550872</v>
       </c>
     </row>
     <row r="3">
@@ -1713,16 +1713,16 @@
         <v>25.3709365990796</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08974526235695</v>
+        <v>2.30110674778248</v>
       </c>
       <c r="I3" t="n">
-        <v>4.58155543781231</v>
+        <v>5.05110052314905</v>
       </c>
       <c r="J3" t="n">
-        <v>2.30110674778248</v>
+        <v>2.61265629819383</v>
       </c>
       <c r="K3" t="n">
-        <v>0.761226225456491</v>
+        <v>3.33862563890701</v>
       </c>
     </row>
     <row r="4">
@@ -1748,16 +1748,16 @@
         <v>14.1089535361882</v>
       </c>
       <c r="H4" t="n">
-        <v>0.255322984928052</v>
+        <v>0.28089111039542</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.539326033791487</v>
+        <v>-0.593098397747549</v>
       </c>
       <c r="J4" t="n">
-        <v>0.28089111039542</v>
+        <v>-0.842596605467694</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0935428402180971</v>
+        <v>-0.370318392744995</v>
       </c>
     </row>
     <row r="5">
@@ -1783,16 +1783,16 @@
         <v>3.50920913173156</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.86042892118453</v>
+        <v>-4.23817850414894</v>
       </c>
       <c r="I5" t="n">
-        <v>1.18170782100708</v>
+        <v>1.30064393385221</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.23817850414894</v>
+        <v>1.07729744052021</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.43316774307304</v>
+        <v>-0.712610805313718</v>
       </c>
     </row>
     <row r="6">
@@ -1818,16 +1818,16 @@
         <v>0.640247722306965</v>
       </c>
       <c r="H6" t="n">
-        <v>2.91628321312714</v>
+        <v>3.21254875766948</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3448971215539</v>
+        <v>2.58238999157225</v>
       </c>
       <c r="J6" t="n">
-        <v>3.21254875766948</v>
+        <v>3.64860513043348</v>
       </c>
       <c r="K6" t="n">
-        <v>1.05958277563318</v>
+        <v>3.12966264646581</v>
       </c>
     </row>
     <row r="7">
@@ -1853,16 +1853,16 @@
         <v>0.76340433901328</v>
       </c>
       <c r="H7" t="n">
-        <v>2.70389739616284</v>
+        <v>2.97827601407794</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58192862682607</v>
+        <v>2.84375992827932</v>
       </c>
       <c r="J7" t="n">
-        <v>2.97827601407794</v>
+        <v>0.930957562863766</v>
       </c>
       <c r="K7" t="n">
-        <v>0.98306287701202</v>
+        <v>2.29237963037161</v>
       </c>
     </row>
     <row r="8">
@@ -1888,16 +1888,16 @@
         <v>5.86372355898091</v>
       </c>
       <c r="H8" t="n">
-        <v>2.20928142902859</v>
+        <v>2.43287647222286</v>
       </c>
       <c r="I8" t="n">
-        <v>1.47506782432352</v>
+        <v>1.62376605168553</v>
       </c>
       <c r="J8" t="n">
-        <v>2.43287647222286</v>
+        <v>0.604752672091102</v>
       </c>
       <c r="K8" t="n">
-        <v>0.804469753892811</v>
+        <v>1.58383090782268</v>
       </c>
     </row>
     <row r="9">
@@ -1923,16 +1923,16 @@
         <v>3.11117678689397</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55127351059523</v>
+        <v>3.91326453345362</v>
       </c>
       <c r="I9" t="n">
-        <v>3.93453845384122</v>
+        <v>4.33640796191177</v>
       </c>
       <c r="J9" t="n">
-        <v>3.91326453345362</v>
+        <v>2.46822070162172</v>
       </c>
       <c r="K9" t="n">
-        <v>1.2877668901855</v>
+        <v>3.60772056839493</v>
       </c>
     </row>
   </sheetData>
@@ -2005,16 +2005,16 @@
         <v>12.8434929585527</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0200251192841172</v>
+        <v>0.0220278517522488</v>
       </c>
       <c r="I2" t="n">
-        <v>0.755543263660119</v>
+        <v>0.831410846019121</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0220278517522488</v>
+        <v>1.5970692247661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00734207817643107</v>
+        <v>0.787916931312793</v>
       </c>
     </row>
     <row r="3">
@@ -2036,17 +2036,13 @@
       </c>
       <c r="G3"/>
       <c r="H3" t="n">
-        <v>1.51013841417176</v>
+        <v>1.66240089848133</v>
       </c>
       <c r="I3" t="n">
-        <v>1.78400228697098</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.66240089848133</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.55109104057427</v>
-      </c>
+        <v>1.96414369103053</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -2069,16 +2065,16 @@
         <v>19.828535541391</v>
       </c>
       <c r="H4" t="n">
-        <v>1.45939334469083</v>
+        <v>1.60649899170204</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38242666525721</v>
+        <v>2.62376904488326</v>
       </c>
       <c r="J4" t="n">
-        <v>1.60649899170204</v>
+        <v>0.971694715625637</v>
       </c>
       <c r="K4" t="n">
-        <v>0.532657387389701</v>
+        <v>1.75802405920147</v>
       </c>
     </row>
     <row r="5">
@@ -2100,17 +2096,13 @@
       </c>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.863378159483852</v>
+        <v>0.950124899872384</v>
       </c>
       <c r="I5" t="n">
-        <v>3.24064521889282</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.950124899872384</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.31571051970638</v>
-      </c>
+        <v>3.57043041533298</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -2131,17 +2123,13 @@
       </c>
       <c r="G6"/>
       <c r="H6" t="n">
-        <v>1.91455330288957</v>
+        <v>2.10801319081313</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73768641692746</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.10801319081313</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.697790620686112</v>
-      </c>
+        <v>1.91310722650113</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2215,16 +2203,16 @@
         <v>68.6792273195691</v>
       </c>
       <c r="H2" t="n">
-        <v>0.870465020016642</v>
+        <v>0.957927178365336</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25599621624162</v>
+        <v>2.48437632848082</v>
       </c>
       <c r="J2" t="n">
-        <v>0.957927178365336</v>
+        <v>1.70105771386213</v>
       </c>
       <c r="K2" t="n">
-        <v>0.318294868324109</v>
+        <v>1.71294065792209</v>
       </c>
     </row>
     <row r="3">
@@ -2250,16 +2238,16 @@
         <v>2983.74266361607</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0619898983015954</v>
+        <v>0.0681910012499287</v>
       </c>
       <c r="I3" t="n">
-        <v>0.94484029352977</v>
+        <v>1.03981393510064</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0681910012499287</v>
+        <v>0.844051821393776</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0227251690257058</v>
+        <v>0.643118311914415</v>
       </c>
     </row>
     <row r="4">
@@ -2285,16 +2273,16 @@
         <v>1389.43225584839</v>
       </c>
       <c r="H4" t="n">
-        <v>0.520371138808673</v>
+        <v>0.572556953129344</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07504565180205</v>
+        <v>1.18318382506937</v>
       </c>
       <c r="J4" t="n">
-        <v>0.572556953129344</v>
+        <v>1.09685880282913</v>
       </c>
       <c r="K4" t="n">
-        <v>0.190489225854118</v>
+        <v>0.945462645332662</v>
       </c>
     </row>
     <row r="5">
@@ -2320,16 +2308,16 @@
         <v>428.501275427824</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.123143533649717</v>
+        <v>-0.135449543550259</v>
       </c>
       <c r="I5" t="n">
-        <v>0.538617886761039</v>
+        <v>0.59263897834434</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.135449543550259</v>
+        <v>0.663697291398013</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.045170248291293</v>
+        <v>0.362968343113024</v>
       </c>
     </row>
     <row r="6">
@@ -2355,16 +2343,16 @@
         <v>1025.11541138999</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.39421023890193</v>
+        <v>-1.53255765907253</v>
       </c>
       <c r="I6" t="n">
-        <v>0.930929093214239</v>
+        <v>1.02449732315681</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.53255765907253</v>
+        <v>0.178714337468966</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.513484705494038</v>
+        <v>-0.125589496528355</v>
       </c>
     </row>
     <row r="7">
@@ -2390,16 +2378,16 @@
         <v>342.983277350877</v>
       </c>
       <c r="H7" t="n">
-        <v>0.93337018770383</v>
+        <v>1.02718501966947</v>
       </c>
       <c r="I7" t="n">
-        <v>1.80535354156952</v>
+        <v>1.98767188498272</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02718501966947</v>
+        <v>1.42752187192221</v>
       </c>
       <c r="K7" t="n">
-        <v>0.341229307756197</v>
+        <v>1.48183983117423</v>
       </c>
     </row>
     <row r="8">
@@ -2425,16 +2413,16 @@
         <v>24.1768397175773</v>
       </c>
       <c r="H8" t="n">
-        <v>102.824436184114</v>
+        <v>117.686905187995</v>
       </c>
       <c r="I8" t="n">
-        <v>1.31312749107477</v>
+        <v>1.44538489442252</v>
       </c>
       <c r="J8" t="n">
-        <v>117.686905187995</v>
+        <v>-1.01452440943226</v>
       </c>
       <c r="K8" t="n">
-        <v>29.6017209236811</v>
+        <v>30.9991854347035</v>
       </c>
     </row>
     <row r="9">
@@ -2460,16 +2448,16 @@
         <v>902.108443194908</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.826330890996152</v>
+        <v>-0.908587492924251</v>
       </c>
       <c r="I9" t="n">
-        <v>1.34367501944588</v>
+        <v>1.47903154832214</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.908587492924251</v>
+        <v>0.971061802944773</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.303784412845121</v>
+        <v>0.492657790430084</v>
       </c>
     </row>
     <row r="10">
@@ -2495,16 +2483,16 @@
         <v>2372.07072581055</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.212216027576151</v>
+        <v>-0.233412844945036</v>
       </c>
       <c r="I10" t="n">
-        <v>0.260786109258571</v>
+        <v>0.28690209612352</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.233412844945036</v>
+        <v>0.659453788112252</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0778648953312477</v>
+        <v>0.222442089180586</v>
       </c>
     </row>
     <row r="11">
@@ -2530,16 +2518,16 @@
         <v>154.454162930868</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.144834346178002</v>
+        <v>-0.15930623843603</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76224641043876</v>
+        <v>3.04263322812954</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.15930623843603</v>
+        <v>2.08369368169332</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0531303027701435</v>
+        <v>1.63175046349773</v>
       </c>
     </row>
     <row r="12">
@@ -2565,16 +2553,16 @@
         <v>1277.13641440323</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.61895750514141</v>
+        <v>-1.77940463694383</v>
       </c>
       <c r="I12" t="n">
-        <v>3.82867986723205</v>
+        <v>4.21951923153518</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.77940463694383</v>
+        <v>1.17002943031148</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.596688165215531</v>
+        <v>1.17387523224644</v>
       </c>
     </row>
     <row r="13">
@@ -2600,16 +2588,16 @@
         <v>13824.561414811</v>
       </c>
       <c r="H13" t="n">
-        <v>1.90384270263129</v>
+        <v>2.09620922795304</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6918918961234</v>
+        <v>2.96503476080341</v>
       </c>
       <c r="J13" t="n">
-        <v>2.09620922795304</v>
+        <v>1.02065735495169</v>
       </c>
       <c r="K13" t="n">
-        <v>0.693910158714384</v>
+        <v>2.05898085281704</v>
       </c>
     </row>
     <row r="14">
@@ -2635,16 +2623,16 @@
         <v>2603.8707954271</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22295139876421</v>
+        <v>2.4479464348693</v>
       </c>
       <c r="I14" t="n">
-        <v>0.393614032917</v>
+        <v>0.433060548377573</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4479464348693</v>
+        <v>1.14742678400346</v>
       </c>
       <c r="K14" t="n">
-        <v>0.809412975100621</v>
+        <v>1.34601077552376</v>
       </c>
     </row>
     <row r="15">
@@ -2670,16 +2658,16 @@
         <v>1336.24656368712</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.96814454071017</v>
+        <v>-1.06444197345303</v>
       </c>
       <c r="I15" t="n">
-        <v>3.40763149925634</v>
+        <v>3.75471697010417</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.06444197345303</v>
+        <v>0.277244064387316</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.356080418844562</v>
+        <v>0.992816878751901</v>
       </c>
     </row>
     <row r="16">
@@ -2705,16 +2693,16 @@
         <v>632.266190131663</v>
       </c>
       <c r="H16" t="n">
-        <v>1.15721162451365</v>
+        <v>1.27366677028506</v>
       </c>
       <c r="I16" t="n">
-        <v>0.394147236084574</v>
+        <v>0.433647302473705</v>
       </c>
       <c r="J16" t="n">
-        <v>1.27366677028506</v>
+        <v>0.0913384985440135</v>
       </c>
       <c r="K16" t="n">
-        <v>0.422765762485677</v>
+        <v>0.615854408122551</v>
       </c>
     </row>
     <row r="17">
@@ -2740,16 +2728,16 @@
         <v>1521.861013</v>
       </c>
       <c r="H17" t="n">
-        <v>3.24246655673357</v>
+        <v>3.57244028849</v>
       </c>
       <c r="I17" t="n">
-        <v>6.0008363088125</v>
+        <v>6.6203787332481</v>
       </c>
       <c r="J17" t="n">
-        <v>3.57244028849</v>
+        <v>1.02861660502798</v>
       </c>
       <c r="K17" t="n">
-        <v>1.17690796753041</v>
+        <v>3.80923685668473</v>
       </c>
     </row>
     <row r="18">
@@ -2775,16 +2763,16 @@
         <v>2788.15272987672</v>
       </c>
       <c r="H18" t="n">
-        <v>0.99931295496154</v>
+        <v>1.09979185613729</v>
       </c>
       <c r="I18" t="n">
-        <v>2.43756946857019</v>
+        <v>2.6845707503403</v>
       </c>
       <c r="J18" t="n">
-        <v>1.09979185613729</v>
+        <v>1.62423569640442</v>
       </c>
       <c r="K18" t="n">
-        <v>0.365261501344927</v>
+        <v>1.80682704702362</v>
       </c>
     </row>
     <row r="19">
@@ -2810,16 +2798,16 @@
         <v>3192.45088898752</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1617117398788</v>
+        <v>0.177897289772133</v>
       </c>
       <c r="I19" t="n">
-        <v>4.40950651076237</v>
+        <v>4.86101264582544</v>
       </c>
       <c r="J19" t="n">
-        <v>0.177897289772133</v>
+        <v>2.58491522037483</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0592639674740436</v>
+        <v>2.52131705023222</v>
       </c>
     </row>
     <row r="20">
@@ -2845,16 +2833,16 @@
         <v>3847.95480561065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0123409585564671</v>
+        <v>0.0135751381735938</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85920811741263</v>
+        <v>4.25322721052461</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0135751381735938</v>
+        <v>-0.12676058841411</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00452484131288067</v>
+        <v>1.41148258704649</v>
       </c>
     </row>
     <row r="21">
@@ -2880,16 +2868,16 @@
         <v>2343.30454623359</v>
       </c>
       <c r="H21" t="n">
-        <v>1.22668422741732</v>
+        <v>1.35017723692061</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1067794069709</v>
+        <v>1.21812885070804</v>
       </c>
       <c r="J21" t="n">
-        <v>1.35017723692061</v>
+        <v>1.57141198038968</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448048605291129</v>
+        <v>1.37320046671578</v>
       </c>
     </row>
     <row r="22">
@@ -2915,16 +2903,16 @@
         <v>394.650852918673</v>
       </c>
       <c r="H22" t="n">
-        <v>1.09548534120036</v>
+        <v>1.2056917657896</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.869775061493372</v>
+        <v>-0.956335397685426</v>
       </c>
       <c r="J22" t="n">
-        <v>1.2056917657896</v>
+        <v>3.33480015267715</v>
       </c>
       <c r="K22" t="n">
-        <v>0.400292774191358</v>
+        <v>1.10603917584224</v>
       </c>
     </row>
     <row r="23">
@@ -2950,16 +2938,16 @@
         <v>178.383560152108</v>
       </c>
       <c r="H23" t="n">
-        <v>1.8786952127402</v>
+        <v>2.06849511233687</v>
       </c>
       <c r="I23" t="n">
-        <v>0.891958175526431</v>
+        <v>0.981590401283627</v>
       </c>
       <c r="J23" t="n">
-        <v>2.06849511233687</v>
+        <v>2.96885378994056</v>
       </c>
       <c r="K23" t="n">
-        <v>0.684798180791035</v>
+        <v>1.96993461990695</v>
       </c>
     </row>
     <row r="24">
@@ -2985,16 +2973,16 @@
         <v>636.569862420517</v>
       </c>
       <c r="H24" t="n">
-        <v>2.91979833774436</v>
+        <v>3.21642653227534</v>
       </c>
       <c r="I24" t="n">
-        <v>2.34490079367953</v>
+        <v>2.5823940402838</v>
       </c>
       <c r="J24" t="n">
-        <v>3.21642653227534</v>
+        <v>3.64925845700457</v>
       </c>
       <c r="K24" t="n">
-        <v>1.06084838845761</v>
+        <v>3.13120186697624</v>
       </c>
     </row>
     <row r="25">
@@ -3020,16 +3008,16 @@
         <v>727.082638555589</v>
       </c>
       <c r="H25" t="n">
-        <v>2.71353470704023</v>
+        <v>2.98890542712826</v>
       </c>
       <c r="I25" t="n">
-        <v>2.62591448154039</v>
+        <v>2.89226890531624</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98890542712826</v>
+        <v>0.925429550806145</v>
       </c>
       <c r="K25" t="n">
-        <v>0.986537246553154</v>
+        <v>2.310916875588</v>
       </c>
     </row>
     <row r="26">
@@ -3055,16 +3043,16 @@
         <v>514.112774434672</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.546764014262935</v>
+        <v>-0.601275722296823</v>
       </c>
       <c r="I26" t="n">
-        <v>0.992413547686999</v>
+        <v>1.09219498384066</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.601275722296823</v>
+        <v>0.201675531701473</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.200828290795874</v>
+        <v>0.229403466897971</v>
       </c>
     </row>
     <row r="27">
@@ -3090,16 +3078,16 @@
         <v>101.194546101585</v>
       </c>
       <c r="H27" t="n">
-        <v>-3.39285719264277</v>
+        <v>-3.72574609473411</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0640897091655601</v>
+        <v>0.0705009387678368</v>
       </c>
       <c r="J27" t="n">
-        <v>-3.72574609473411</v>
+        <v>0.712960113248662</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.25766630076446</v>
+        <v>-1.05885833800113</v>
       </c>
     </row>
     <row r="28">
@@ -3125,16 +3113,16 @@
         <v>6162.33391164276</v>
       </c>
       <c r="H28" t="n">
-        <v>2.26733121970635</v>
+        <v>2.49687274889816</v>
       </c>
       <c r="I28" t="n">
-        <v>1.83204156724397</v>
+        <v>2.01708167241548</v>
       </c>
       <c r="J28" t="n">
-        <v>2.49687274889816</v>
+        <v>1.71703371434775</v>
       </c>
       <c r="K28" t="n">
-        <v>0.825458352972963</v>
+        <v>2.08890877367001</v>
       </c>
     </row>
   </sheetData>
@@ -3209,16 +3197,16 @@
         <v>276.470854611608</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94196352421587</v>
+        <v>2.13822207524388</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27144752632844</v>
+        <v>1.39947802623817</v>
       </c>
       <c r="J2" t="n">
-        <v>2.13822207524388</v>
+        <v>3.26037535298298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.707720197162809</v>
+        <v>2.22895261297675</v>
       </c>
     </row>
     <row r="3">
@@ -3244,16 +3232,16 @@
         <v>82.9058027368594</v>
       </c>
       <c r="H3" t="n">
-        <v>6.8751335864436</v>
+        <v>7.5881246905743</v>
       </c>
       <c r="I3" t="n">
-        <v>0.90309887866864</v>
+        <v>0.993856129575521</v>
       </c>
       <c r="J3" t="n">
-        <v>7.5881246905743</v>
+        <v>0.776018954997437</v>
       </c>
       <c r="K3" t="n">
-        <v>2.46796530241202</v>
+        <v>3.1516377655598</v>
       </c>
     </row>
     <row r="4">
@@ -3279,16 +3267,16 @@
         <v>17.7677731908053</v>
       </c>
       <c r="H4" t="n">
-        <v>4.11106268169958</v>
+        <v>4.53135195391523</v>
       </c>
       <c r="I4" t="n">
-        <v>5.96412671556779</v>
+        <v>6.57976287209379</v>
       </c>
       <c r="J4" t="n">
-        <v>4.53135195391523</v>
+        <v>4.57624286440721</v>
       </c>
       <c r="K4" t="n">
-        <v>1.48819358541772</v>
+        <v>5.24723771767965</v>
       </c>
     </row>
     <row r="5">
@@ -3314,16 +3302,16 @@
         <v>12.5012189245897</v>
       </c>
       <c r="H5" t="n">
-        <v>1.18270049155125</v>
+        <v>1.30173715552748</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.464212007127951</v>
+        <v>-0.510514521385985</v>
       </c>
       <c r="J5" t="n">
-        <v>1.30173715552748</v>
+        <v>2.87230153002138</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432043084715583</v>
+        <v>1.15494864147831</v>
       </c>
     </row>
     <row r="6">
@@ -3349,16 +3337,16 @@
         <v>30.161643270651</v>
       </c>
       <c r="H6" t="n">
-        <v>2.41527415682554</v>
+        <v>2.65998703975667</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8505908618649</v>
+        <v>5.34840638820491</v>
       </c>
       <c r="J6" t="n">
-        <v>2.65998703975667</v>
+        <v>2.88815497325039</v>
       </c>
       <c r="K6" t="n">
-        <v>0.87891480248603</v>
+        <v>3.65057841184817</v>
       </c>
     </row>
     <row r="7">
@@ -3384,16 +3372,16 @@
         <v>6.53583290114108</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.134480983965934</v>
+        <v>-0.147919131522711</v>
       </c>
       <c r="I7" t="n">
-        <v>4.11329865329138</v>
+        <v>4.53382145442962</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.147919131522711</v>
+        <v>4.27531608167406</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0493307083605399</v>
+        <v>2.81610361675506</v>
       </c>
     </row>
     <row r="8">
@@ -3419,16 +3407,16 @@
         <v>1.18739029842374</v>
       </c>
       <c r="H8" t="n">
-        <v>8.5800044263159</v>
+        <v>9.47749221369209</v>
       </c>
       <c r="I8" t="n">
-        <v>6.19846679554199</v>
+        <v>6.83906324002603</v>
       </c>
       <c r="J8" t="n">
-        <v>9.47749221369209</v>
+        <v>0.983516740012713</v>
       </c>
       <c r="K8" t="n">
-        <v>3.0643052786574</v>
+        <v>5.8732704879884</v>
       </c>
     </row>
     <row r="9">
@@ -3454,16 +3442,16 @@
         <v>40.4877898455322</v>
       </c>
       <c r="H9" t="n">
-        <v>0.355779435095038</v>
+        <v>0.39142692287697</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.15505314743478</v>
+        <v>-0.170545233209818</v>
       </c>
       <c r="J9" t="n">
-        <v>0.39142692287697</v>
+        <v>2.88418742333996</v>
       </c>
       <c r="K9" t="n">
-        <v>0.130305771267425</v>
+        <v>0.962886143805841</v>
       </c>
     </row>
     <row r="10">
@@ -3489,16 +3477,16 @@
         <v>11.0225233910137</v>
       </c>
       <c r="H10" t="n">
-        <v>3.24756142219005</v>
+        <v>3.57806256646016</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38116686170926</v>
+        <v>2.62237999517703</v>
       </c>
       <c r="J10" t="n">
-        <v>3.57806256646016</v>
+        <v>2.17411649346098</v>
       </c>
       <c r="K10" t="n">
-        <v>1.17873868107579</v>
+        <v>2.81115313197948</v>
       </c>
     </row>
     <row r="11">
@@ -3524,16 +3512,16 @@
         <v>75.4345458188392</v>
       </c>
       <c r="H11" t="n">
-        <v>8.49985303588408</v>
+        <v>9.38860020947692</v>
       </c>
       <c r="I11" t="n">
-        <v>5.29583280082964</v>
+        <v>5.84060220928573</v>
       </c>
       <c r="J11" t="n">
-        <v>9.38860020947692</v>
+        <v>5.89938110437689</v>
       </c>
       <c r="K11" t="n">
-        <v>3.03640282057491</v>
+        <v>7.06930452797023</v>
       </c>
     </row>
     <row r="12">
@@ -3559,16 +3547,16 @@
         <v>0.831537700632116</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78457968800223</v>
+        <v>3.06726713110219</v>
       </c>
       <c r="I12" t="n">
-        <v>2.65967883794218</v>
+        <v>2.92950670475243</v>
       </c>
       <c r="J12" t="n">
-        <v>3.06726713110219</v>
+        <v>3.77890923912843</v>
       </c>
       <c r="K12" t="n">
-        <v>1.01214347049887</v>
+        <v>3.23997177446282</v>
       </c>
     </row>
     <row r="13">
@@ -3594,16 +3582,16 @@
         <v>49.0094353355227</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0388001500397195</v>
+        <v>0.0426809929457317</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8145577689187</v>
+        <v>1.99781471266811</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0426809929457317</v>
+        <v>5.45972098933434</v>
       </c>
       <c r="K13" t="n">
-        <v>0.014224974053767</v>
+        <v>2.37433282879171</v>
       </c>
     </row>
     <row r="14">
@@ -3629,16 +3617,16 @@
         <v>23.1968732429257</v>
       </c>
       <c r="H14" t="n">
-        <v>6.22566004068765</v>
+        <v>6.86915662961265</v>
       </c>
       <c r="I14" t="n">
-        <v>0.365726510417597</v>
+        <v>0.402372646618709</v>
       </c>
       <c r="J14" t="n">
-        <v>6.86915662961265</v>
+        <v>0.269102108592012</v>
       </c>
       <c r="K14" t="n">
-        <v>2.23920427054214</v>
+        <v>2.54457271134103</v>
       </c>
     </row>
     <row r="15">
@@ -3664,16 +3652,16 @@
         <v>28.5987337554001</v>
       </c>
       <c r="H15" t="n">
-        <v>4.71372754520396</v>
+        <v>5.19715182807348</v>
       </c>
       <c r="I15" t="n">
-        <v>1.49166742863127</v>
+        <v>1.64205252294907</v>
       </c>
       <c r="J15" t="n">
-        <v>5.19715182807348</v>
+        <v>3.58848853484035</v>
       </c>
       <c r="K15" t="n">
-        <v>1.70321000342311</v>
+        <v>3.46144414389233</v>
       </c>
     </row>
     <row r="16">
@@ -3699,16 +3687,16 @@
         <v>2.34589259547298</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.460607712473027</v>
+        <v>-0.506551634419206</v>
       </c>
       <c r="I16" t="n">
-        <v>0.441150390723122</v>
+        <v>0.485372325949585</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.506551634419206</v>
+        <v>1.51939852967886</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.169136454926577</v>
+        <v>0.460897980183361</v>
       </c>
     </row>
     <row r="17">
@@ -3734,16 +3722,16 @@
         <v>379.230409257886</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7317630887236</v>
+        <v>3.0090105818577</v>
       </c>
       <c r="I17" t="n">
-        <v>3.99371693346298</v>
+        <v>4.40175784867207</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0090105818577</v>
+        <v>2.43863189436611</v>
       </c>
       <c r="K17" t="n">
-        <v>0.993108238653173</v>
+        <v>3.30898048736123</v>
       </c>
     </row>
     <row r="18">
@@ -3769,16 +3757,16 @@
         <v>14.9739279414493</v>
       </c>
       <c r="H18" t="n">
-        <v>43.9938615054845</v>
+        <v>49.3407665716854</v>
       </c>
       <c r="I18" t="n">
-        <v>4.53750850966654</v>
+        <v>5.0024323915381</v>
       </c>
       <c r="J18" t="n">
-        <v>49.3407665716854</v>
+        <v>-3.25198171127224</v>
       </c>
       <c r="K18" t="n">
-        <v>14.3034815636488</v>
+        <v>15.5887923299364</v>
       </c>
     </row>
     <row r="19">
@@ -3804,16 +3792,16 @@
         <v>6.66884651271114</v>
       </c>
       <c r="H19" t="n">
-        <v>1.53912069033217</v>
+        <v>1.69432967791374</v>
       </c>
       <c r="I19" t="n">
-        <v>0.202779565707889</v>
+        <v>0.223080124287622</v>
       </c>
       <c r="J19" t="n">
-        <v>1.69432967791374</v>
+        <v>1.82185658064342</v>
       </c>
       <c r="K19" t="n">
-        <v>0.561616523403674</v>
+        <v>1.22394039889338</v>
       </c>
     </row>
     <row r="20">
@@ -3839,16 +3827,16 @@
         <v>160.570863072025</v>
       </c>
       <c r="H20" t="n">
-        <v>1.2280784861403</v>
+        <v>1.3517127936149</v>
       </c>
       <c r="I20" t="n">
-        <v>4.62119862399244</v>
+        <v>5.09490464488127</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3517127936149</v>
+        <v>2.9776182313326</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448555898909797</v>
+        <v>3.13530298791498</v>
       </c>
     </row>
     <row r="21">
@@ -3909,16 +3897,16 @@
         <v>19.3679271141581</v>
       </c>
       <c r="H22" t="n">
-        <v>2.69096689049801</v>
+        <v>2.96401454868258</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.40938878546071</v>
+        <v>-2.64711148291734</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96401454868258</v>
+        <v>-0.746603874627905</v>
       </c>
       <c r="K22" t="n">
-        <v>0.978400945711244</v>
+        <v>-0.150337206757911</v>
       </c>
     </row>
     <row r="23">
@@ -3944,16 +3932,16 @@
         <v>2.20425093835176</v>
       </c>
       <c r="H23" t="n">
-        <v>2.64292013733034</v>
+        <v>2.91102383203319</v>
       </c>
       <c r="I23" t="n">
-        <v>4.30660484029062</v>
+        <v>4.747336927692</v>
       </c>
       <c r="J23" t="n">
-        <v>2.91102383203319</v>
+        <v>1.13399811763262</v>
       </c>
       <c r="K23" t="n">
-        <v>0.961075034734304</v>
+        <v>2.98236913483185</v>
       </c>
     </row>
     <row r="24">
@@ -3979,16 +3967,16 @@
         <v>38.9005788170984</v>
       </c>
       <c r="H24" t="n">
-        <v>3.56668492641325</v>
+        <v>3.9302764796143</v>
       </c>
       <c r="I24" t="n">
-        <v>3.44731649207073</v>
+        <v>3.79851782456382</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9302764796143</v>
+        <v>5.95975301855622</v>
       </c>
       <c r="K24" t="n">
-        <v>1.29329396131863</v>
+        <v>4.5101925049589</v>
       </c>
     </row>
     <row r="25">
@@ -4014,16 +4002,16 @@
         <v>25.7560222379835</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7237262173623</v>
+        <v>4.10364149395162</v>
       </c>
       <c r="I25" t="n">
-        <v>4.70557421342981</v>
+        <v>5.18814179321432</v>
       </c>
       <c r="J25" t="n">
-        <v>4.10364149395162</v>
+        <v>3.90064234636192</v>
       </c>
       <c r="K25" t="n">
-        <v>1.34958477060565</v>
+        <v>4.41307035477982</v>
       </c>
     </row>
     <row r="26">
@@ -4049,16 +4037,16 @@
         <v>3.0281598659083</v>
       </c>
       <c r="H26" t="n">
-        <v>1.8783753820381</v>
+        <v>2.0681426431912</v>
       </c>
       <c r="I26" t="n">
-        <v>2.62212249067004</v>
+        <v>2.88808689721427</v>
       </c>
       <c r="J26" t="n">
-        <v>2.0681426431912</v>
+        <v>1.7895384405392</v>
       </c>
       <c r="K26" t="n">
-        <v>0.684682283697935</v>
+        <v>2.26335727327289</v>
       </c>
     </row>
     <row r="27">
@@ -4084,16 +4072,16 @@
         <v>96.4786592796878</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8100351893229</v>
+        <v>0.891398720976211</v>
       </c>
       <c r="I27" t="n">
-        <v>5.73540971898994</v>
+        <v>6.3267398095245</v>
       </c>
       <c r="J27" t="n">
-        <v>0.891398720976211</v>
+        <v>1.59267727115446</v>
       </c>
       <c r="K27" t="n">
-        <v>0.296254373743943</v>
+        <v>2.95460934525626</v>
       </c>
     </row>
     <row r="28">
@@ -4119,16 +4107,16 @@
         <v>3.00925952950528</v>
       </c>
       <c r="H28" t="n">
-        <v>2.43698523766656</v>
+        <v>2.68392654693879</v>
       </c>
       <c r="I28" t="n">
-        <v>0.392400737988474</v>
+        <v>0.431725400364269</v>
       </c>
       <c r="J28" t="n">
-        <v>2.68392654693879</v>
+        <v>0.811640797187008</v>
       </c>
       <c r="K28" t="n">
-        <v>0.886755584730192</v>
+        <v>1.32136608769089</v>
       </c>
     </row>
     <row r="29">
@@ -4154,16 +4142,16 @@
         <v>4.43923495153434</v>
       </c>
       <c r="H29" t="n">
-        <v>1.77043479550849</v>
+        <v>1.94919313655078</v>
       </c>
       <c r="I29" t="n">
-        <v>4.13822200502771</v>
+        <v>4.56134820516789</v>
       </c>
       <c r="J29" t="n">
-        <v>1.94919313655078</v>
+        <v>3.97469153367582</v>
       </c>
       <c r="K29" t="n">
-        <v>0.645554669569903</v>
+        <v>3.47229555056008</v>
       </c>
     </row>
     <row r="30">
@@ -4189,16 +4177,16 @@
         <v>80.1317650966057</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0129149943860041</v>
+        <v>-0.0142064020826504</v>
       </c>
       <c r="I30" t="n">
-        <v>1.26492441048207</v>
+        <v>1.39229355054853</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0142064020826504</v>
+        <v>-2.85329687772297</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.00473569162509069</v>
+        <v>-0.425585749030011</v>
       </c>
     </row>
     <row r="31">
@@ -4224,16 +4212,16 @@
         <v>33.7358338942096</v>
       </c>
       <c r="H31" t="n">
-        <v>0.818643688121323</v>
+        <v>0.900875752805064</v>
       </c>
       <c r="I31" t="n">
-        <v>0.952119719115929</v>
+        <v>1.04782886585131</v>
       </c>
       <c r="J31" t="n">
-        <v>0.900875752805064</v>
+        <v>1.33390726898044</v>
       </c>
       <c r="K31" t="n">
-        <v>0.299394651465579</v>
+        <v>1.08578313380736</v>
       </c>
     </row>
     <row r="32">
@@ -4259,16 +4247,16 @@
         <v>13.4322045841804</v>
       </c>
       <c r="H32" t="n">
-        <v>2.55352124090618</v>
+        <v>2.81243247950089</v>
       </c>
       <c r="I32" t="n">
-        <v>3.19155652338967</v>
+        <v>3.51626165199095</v>
       </c>
       <c r="J32" t="n">
-        <v>2.81243247950089</v>
+        <v>3.85260293470908</v>
       </c>
       <c r="K32" t="n">
-        <v>0.928823649168375</v>
+        <v>3.37703936794824</v>
       </c>
     </row>
     <row r="33">
@@ -4294,16 +4282,16 @@
         <v>41.6401321035493</v>
       </c>
       <c r="H33" t="n">
-        <v>2.59226411412627</v>
+        <v>2.85515804018661</v>
       </c>
       <c r="I33" t="n">
-        <v>4.50759541791015</v>
+        <v>4.96938212329685</v>
       </c>
       <c r="J33" t="n">
-        <v>2.85515804018661</v>
+        <v>4.63808597963413</v>
       </c>
       <c r="K33" t="n">
-        <v>0.94280264396025</v>
+        <v>4.13326640935514</v>
       </c>
     </row>
     <row r="34">
@@ -4329,16 +4317,16 @@
         <v>13.7927367909918</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9801124526329</v>
+        <v>3.28296522434093</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91960234590849</v>
+        <v>2.11357769473002</v>
       </c>
       <c r="J34" t="n">
-        <v>3.28296522434093</v>
+        <v>2.50235923349718</v>
       </c>
       <c r="K34" t="n">
-        <v>1.08256008828247</v>
+        <v>2.63628386510921</v>
       </c>
     </row>
     <row r="35">
@@ -4364,16 +4352,16 @@
         <v>4.78820679976744</v>
       </c>
       <c r="H35" t="n">
-        <v>4.89078166740757</v>
+        <v>5.3928270277237</v>
       </c>
       <c r="I35" t="n">
-        <v>2.95019973874171</v>
+        <v>3.24996495152021</v>
       </c>
       <c r="J35" t="n">
-        <v>5.3928270277237</v>
+        <v>0.698541677840225</v>
       </c>
       <c r="K35" t="n">
-        <v>1.76622967421161</v>
+        <v>3.17957495408658</v>
       </c>
     </row>
     <row r="36">
@@ -4399,16 +4387,16 @@
         <v>0.033853910811937</v>
       </c>
       <c r="H36" t="n">
-        <v>4.36396450359193</v>
+        <v>4.81070090044935</v>
       </c>
       <c r="I36" t="n">
-        <v>3.04620054932943</v>
+        <v>3.35587826311516</v>
       </c>
       <c r="J36" t="n">
-        <v>4.81070090044935</v>
+        <v>2.68475656800369</v>
       </c>
       <c r="K36" t="n">
-        <v>1.57851864798746</v>
+        <v>3.6454900617767</v>
       </c>
     </row>
     <row r="37">
@@ -4434,16 +4422,16 @@
         <v>109.892507401034</v>
       </c>
       <c r="H37" t="n">
-        <v>2.57128100339221</v>
+        <v>2.83201770861528</v>
       </c>
       <c r="I37" t="n">
-        <v>3.15300765829827</v>
+        <v>3.47372526629819</v>
       </c>
       <c r="J37" t="n">
-        <v>2.83201770861528</v>
+        <v>3.27548105109625</v>
       </c>
       <c r="K37" t="n">
-        <v>0.935232046100953</v>
+        <v>3.19056287789208</v>
       </c>
     </row>
     <row r="38">
@@ -4469,16 +4457,16 @@
         <v>34.8805541504364</v>
       </c>
       <c r="H38" t="n">
-        <v>3.01246255136935</v>
+        <v>3.31865554522397</v>
       </c>
       <c r="I38" t="n">
-        <v>3.02909448510973</v>
+        <v>3.33700520067657</v>
       </c>
       <c r="J38" t="n">
-        <v>3.31865554522397</v>
+        <v>9.1253929016728</v>
       </c>
       <c r="K38" t="n">
-        <v>1.09420206468331</v>
+        <v>5.0933225674711</v>
       </c>
     </row>
     <row r="39">
@@ -4504,16 +4492,16 @@
         <v>12.1837336142021</v>
       </c>
       <c r="H39" t="n">
-        <v>1.5777886196898</v>
+        <v>1.73693022827337</v>
       </c>
       <c r="I39" t="n">
-        <v>1.52467750811682</v>
+        <v>1.67841800559601</v>
       </c>
       <c r="J39" t="n">
-        <v>1.73693022827337</v>
+        <v>2.45823634833222</v>
       </c>
       <c r="K39" t="n">
-        <v>0.575656579075345</v>
+        <v>1.94001402349535</v>
       </c>
     </row>
     <row r="40">
@@ -4539,16 +4527,16 @@
         <v>37.0517196723543</v>
       </c>
       <c r="H40" t="n">
-        <v>3.10265551631472</v>
+        <v>3.41816705903644</v>
       </c>
       <c r="I40" t="n">
-        <v>3.34843549265382</v>
+        <v>3.68938467407698</v>
       </c>
       <c r="J40" t="n">
-        <v>3.41816705903644</v>
+        <v>4.65669339545203</v>
       </c>
       <c r="K40" t="n">
-        <v>1.12664799286331</v>
+        <v>3.8947495749434</v>
       </c>
     </row>
     <row r="41">
@@ -4574,16 +4562,16 @@
         <v>407.570823425777</v>
       </c>
       <c r="H41" t="n">
-        <v>3.48002608290185</v>
+        <v>3.83462109836434</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.37978003911573</v>
+        <v>-1.51670659401987</v>
       </c>
       <c r="J41" t="n">
-        <v>3.83462109836434</v>
+        <v>1.52682827022665</v>
       </c>
       <c r="K41" t="n">
-        <v>1.26220830434727</v>
+        <v>1.24854415396596</v>
       </c>
     </row>
     <row r="42">
@@ -4609,16 +4597,16 @@
         <v>3.23362085114353</v>
       </c>
       <c r="H42" t="n">
-        <v>7.07913101042483</v>
+        <v>7.81404041371518</v>
       </c>
       <c r="I42" t="n">
-        <v>1.63184423212668</v>
+        <v>1.79648614395964</v>
       </c>
       <c r="J42" t="n">
-        <v>7.81404041371518</v>
+        <v>0.455880570271194</v>
       </c>
       <c r="K42" t="n">
-        <v>2.53963659643859</v>
+        <v>3.40627050529025</v>
       </c>
     </row>
     <row r="43">
@@ -4644,16 +4632,16 @@
         <v>7.09217532356448</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16402054303879</v>
+        <v>0.18043738657374</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9929072882777</v>
+        <v>4.40086374482447</v>
       </c>
       <c r="J43" t="n">
-        <v>0.18043738657374</v>
+        <v>2.25209368260222</v>
       </c>
       <c r="K43" t="n">
-        <v>0.060109656576901</v>
+        <v>2.26367142955843</v>
       </c>
     </row>
     <row r="44">
@@ -4679,16 +4667,16 @@
         <v>0.0211224864124069</v>
       </c>
       <c r="H44" t="n">
-        <v>0.594638545634774</v>
+        <v>0.654296531493781</v>
       </c>
       <c r="I44" t="n">
-        <v>0.391643841657108</v>
+        <v>0.43089248858188</v>
       </c>
       <c r="J44" t="n">
-        <v>0.654296531493781</v>
+        <v>3.6824314833138</v>
       </c>
       <c r="K44" t="n">
-        <v>0.217624894323487</v>
+        <v>1.50667098059114</v>
       </c>
     </row>
     <row r="45">
@@ -4714,16 +4702,16 @@
         <v>0.257486685665339</v>
       </c>
       <c r="H45" t="n">
-        <v>2.85958964346842</v>
+        <v>3.15000802954644</v>
       </c>
       <c r="I45" t="n">
-        <v>5.05040195468389</v>
+        <v>5.56926316210491</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15000802954644</v>
+        <v>2.73185470680701</v>
       </c>
       <c r="K45" t="n">
-        <v>1.03916659891428</v>
+        <v>3.84690957447327</v>
       </c>
     </row>
     <row r="46">
@@ -4749,16 +4737,16 @@
         <v>24.9057939266534</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88302309391539</v>
+        <v>3.17585789883257</v>
       </c>
       <c r="I46" t="n">
-        <v>3.16956995269024</v>
+        <v>3.49200058085919</v>
       </c>
       <c r="J46" t="n">
-        <v>3.17585789883257</v>
+        <v>2.8918353962853</v>
       </c>
       <c r="K46" t="n">
-        <v>1.04760618817241</v>
+        <v>3.19644153294611</v>
       </c>
     </row>
     <row r="47">
@@ -4784,16 +4772,16 @@
         <v>1.33121282065921</v>
       </c>
       <c r="H47" t="n">
-        <v>9.17842746263064</v>
+        <v>10.1413811600851</v>
       </c>
       <c r="I47" t="n">
-        <v>0.867408351151022</v>
+        <v>0.954561932318132</v>
       </c>
       <c r="J47" t="n">
-        <v>10.1413811600851</v>
+        <v>2.5233407801748</v>
       </c>
       <c r="K47" t="n">
-        <v>3.27221835714968</v>
+        <v>4.53150931229847</v>
       </c>
     </row>
     <row r="48">
@@ -4819,16 +4807,16 @@
         <v>7.33598702534712</v>
       </c>
       <c r="H48" t="n">
-        <v>-1.8300901880853</v>
+        <v>-2.01124692798171</v>
       </c>
       <c r="I48" t="n">
-        <v>5.07555994323265</v>
+        <v>5.59707396788014</v>
       </c>
       <c r="J48" t="n">
-        <v>-2.01124692798171</v>
+        <v>3.33075607889164</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.674961117977346</v>
+        <v>2.21843518849201</v>
       </c>
     </row>
     <row r="49">
@@ -4854,16 +4842,16 @@
         <v>29.4693572847061</v>
       </c>
       <c r="H49" t="n">
-        <v>0.666276355932705</v>
+        <v>0.733147663334188</v>
       </c>
       <c r="I49" t="n">
-        <v>0.385885492216698</v>
+        <v>0.42455584598784</v>
       </c>
       <c r="J49" t="n">
-        <v>0.733147663334188</v>
+        <v>0.655421575292148</v>
       </c>
       <c r="K49" t="n">
-        <v>0.243787746826141</v>
+        <v>0.602526926214053</v>
       </c>
     </row>
     <row r="50">
@@ -4889,16 +4877,16 @@
         <v>576.981352086904</v>
       </c>
       <c r="H50" t="n">
-        <v>0.94746717766574</v>
+        <v>1.04270623005889</v>
       </c>
       <c r="I50" t="n">
-        <v>2.25119405187237</v>
+        <v>2.47908216235571</v>
       </c>
       <c r="J50" t="n">
-        <v>1.04270623005889</v>
+        <v>0.114943526700584</v>
       </c>
       <c r="K50" t="n">
-        <v>0.346367652713897</v>
+        <v>1.24546760690503</v>
       </c>
     </row>
     <row r="51">
@@ -4924,16 +4912,16 @@
         <v>136.161262324015</v>
       </c>
       <c r="H51" t="n">
-        <v>4.2367756538106</v>
+        <v>4.67020284692448</v>
       </c>
       <c r="I51" t="n">
-        <v>2.46593785315496</v>
+        <v>2.71585164967361</v>
       </c>
       <c r="J51" t="n">
-        <v>4.67020284692448</v>
+        <v>1.25619071268788</v>
       </c>
       <c r="K51" t="n">
-        <v>1.53310990705806</v>
+        <v>2.92740463957759</v>
       </c>
     </row>
     <row r="52">
@@ -4959,16 +4947,16 @@
         <v>3.41951407480908</v>
       </c>
       <c r="H52" t="n">
-        <v>4.25424684061657</v>
+        <v>4.68950122581546</v>
       </c>
       <c r="I52" t="n">
-        <v>0.176554937504148</v>
+        <v>0.194227566586669</v>
       </c>
       <c r="J52" t="n">
-        <v>4.68950122581546</v>
+        <v>-3.31057336550957</v>
       </c>
       <c r="K52" t="n">
-        <v>1.53934951795729</v>
+        <v>0.604215497383631</v>
       </c>
     </row>
     <row r="53">
@@ -4994,16 +4982,16 @@
         <v>78.3164847951886</v>
       </c>
       <c r="H53" t="n">
-        <v>2.53382537524547</v>
+        <v>2.79071253828229</v>
       </c>
       <c r="I53" t="n">
-        <v>2.9833327998821</v>
+        <v>3.28651802961164</v>
       </c>
       <c r="J53" t="n">
-        <v>2.79071253828229</v>
+        <v>3.62653324336935</v>
       </c>
       <c r="K53" t="n">
-        <v>0.921715810641</v>
+        <v>3.22050871203321</v>
       </c>
     </row>
     <row r="54">
@@ -5029,16 +5017,16 @@
         <v>9.70736159974192</v>
       </c>
       <c r="H54" t="n">
-        <v>3.37850880450705</v>
+        <v>3.72257493387054</v>
       </c>
       <c r="I54" t="n">
-        <v>3.81494138655225</v>
+        <v>4.2043501162381</v>
       </c>
       <c r="J54" t="n">
-        <v>3.72257493387054</v>
+        <v>3.09759892467496</v>
       </c>
       <c r="K54" t="n">
-        <v>1.2257717559089</v>
+        <v>3.69377890029452</v>
       </c>
     </row>
     <row r="55">
@@ -5064,16 +5052,16 @@
         <v>43.6699900864354</v>
       </c>
       <c r="H55" t="n">
-        <v>3.03329412814994</v>
+        <v>3.34163862353116</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1950470206014</v>
+        <v>2.41718447880697</v>
       </c>
       <c r="J55" t="n">
-        <v>3.34163862353116</v>
+        <v>0.476868777332129</v>
       </c>
       <c r="K55" t="n">
-        <v>1.10169759292198</v>
+        <v>2.12699943218795</v>
       </c>
     </row>
     <row r="56">
@@ -5099,16 +5087,16 @@
         <v>50.0370033547026</v>
       </c>
       <c r="H56" t="n">
-        <v>2.57765776509049</v>
+        <v>2.83904999907831</v>
       </c>
       <c r="I56" t="n">
-        <v>5.33323629438642</v>
+        <v>5.88195965270257</v>
       </c>
       <c r="J56" t="n">
-        <v>2.83904999907831</v>
+        <v>3.15274386163806</v>
       </c>
       <c r="K56" t="n">
-        <v>0.937532852489942</v>
+        <v>3.97655525080418</v>
       </c>
     </row>
     <row r="57">
@@ -5134,16 +5122,16 @@
         <v>0.661429738324497</v>
       </c>
       <c r="H57" t="n">
-        <v>3.10506230503118</v>
+        <v>3.42082263142207</v>
       </c>
       <c r="I57" t="n">
-        <v>1.01273287058474</v>
+        <v>1.11456854733278</v>
       </c>
       <c r="J57" t="n">
-        <v>3.42082263142207</v>
+        <v>0.256891437027984</v>
       </c>
       <c r="K57" t="n">
-        <v>1.12751356236922</v>
+        <v>1.63491824698083</v>
       </c>
     </row>
     <row r="58">
@@ -5169,16 +5157,16 @@
         <v>29.3090777159843</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.159741570376692</v>
+        <v>-0.175701686130425</v>
       </c>
       <c r="I58" t="n">
-        <v>1.94946745920128</v>
+        <v>2.14649232538935</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.175701686130425</v>
+        <v>5.07025022746181</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.0586015634343018</v>
+        <v>2.23115809420418</v>
       </c>
     </row>
     <row r="59">
@@ -5204,16 +5192,16 @@
         <v>30.7521856500587</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.41789588861918</v>
+        <v>-0.459589306488817</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.37567367319196</v>
+        <v>-1.51219585362187</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.459589306488817</v>
+        <v>0.903839428736819</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.153431728048603</v>
+        <v>-0.404213081081339</v>
       </c>
     </row>
     <row r="60">
@@ -5239,16 +5227,16 @@
         <v>30.4242984253398</v>
       </c>
       <c r="H60" t="n">
-        <v>1.33080434143529</v>
+        <v>1.46485498318285</v>
       </c>
       <c r="I60" t="n">
-        <v>5.64571146289188</v>
+        <v>6.22752413169907</v>
       </c>
       <c r="J60" t="n">
-        <v>1.46485498318285</v>
+        <v>0.764754508861643</v>
       </c>
       <c r="K60" t="n">
-        <v>0.485919987565486</v>
+        <v>2.8612721446631</v>
       </c>
     </row>
     <row r="61">
@@ -5274,16 +5262,16 @@
         <v>0.0159875797717443</v>
       </c>
       <c r="H61" t="n">
-        <v>1.96837671189327</v>
+        <v>2.16733289448825</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.245304745072716</v>
+        <v>-0.269802099265926</v>
       </c>
       <c r="J61" t="n">
-        <v>2.16733289448825</v>
+        <v>-0.269527012187154</v>
       </c>
       <c r="K61" t="n">
-        <v>0.717286990409782</v>
+        <v>0.564037024555275</v>
       </c>
     </row>
     <row r="62">
@@ -5309,16 +5297,16 @@
         <v>277.858841282418</v>
       </c>
       <c r="H62" t="n">
-        <v>1.09849485420659</v>
+        <v>1.20900584383961</v>
       </c>
       <c r="I62" t="n">
-        <v>2.91001250024827</v>
+        <v>3.205631137897</v>
       </c>
       <c r="J62" t="n">
-        <v>1.20900584383961</v>
+        <v>3.11549374899009</v>
       </c>
       <c r="K62" t="n">
-        <v>0.401388663723701</v>
+        <v>2.48493491980721</v>
       </c>
     </row>
     <row r="63">
@@ -5344,16 +5332,16 @@
         <v>2.4320891265694</v>
       </c>
       <c r="H63" t="n">
-        <v>2.52143363880002</v>
+        <v>2.77704756003176</v>
       </c>
       <c r="I63" t="n">
-        <v>3.18327535444298</v>
+        <v>3.50712373931039</v>
       </c>
       <c r="J63" t="n">
-        <v>2.77704756003176</v>
+        <v>1.71191241070774</v>
       </c>
       <c r="K63" t="n">
-        <v>0.917243441059035</v>
+        <v>2.6956562747726</v>
       </c>
     </row>
     <row r="64">
@@ -5379,16 +5367,16 @@
         <v>13.450129078277</v>
       </c>
       <c r="H64" t="n">
-        <v>2.93886379892276</v>
+        <v>3.23745917841189</v>
       </c>
       <c r="I64" t="n">
-        <v>2.04375563141708</v>
+        <v>2.25041455963915</v>
       </c>
       <c r="J64" t="n">
-        <v>3.23745917841189</v>
+        <v>-0.492214658310164</v>
       </c>
       <c r="K64" t="n">
-        <v>1.06771238860524</v>
+        <v>1.72769883179356</v>
       </c>
     </row>
     <row r="65">
@@ -5414,16 +5402,16 @@
         <v>42.7001664792736</v>
       </c>
       <c r="H65" t="n">
-        <v>1.77590803379994</v>
+        <v>1.95522428992181</v>
       </c>
       <c r="I65" t="n">
-        <v>3.40153550074402</v>
+        <v>3.74798888437708</v>
       </c>
       <c r="J65" t="n">
-        <v>1.95522428992181</v>
+        <v>2.50222250969516</v>
       </c>
       <c r="K65" t="n">
-        <v>0.647539307826639</v>
+        <v>2.74035869241174</v>
       </c>
     </row>
     <row r="66">
@@ -5449,16 +5437,16 @@
         <v>13971.3773114301</v>
       </c>
       <c r="H66" t="n">
-        <v>2.80709650941715</v>
+        <v>3.09210402726394</v>
       </c>
       <c r="I66" t="n">
-        <v>7.2903130085304</v>
+        <v>8.0479579935995</v>
       </c>
       <c r="J66" t="n">
-        <v>3.09210402726394</v>
+        <v>2.21410929447241</v>
       </c>
       <c r="K66" t="n">
-        <v>1.02025670467274</v>
+        <v>4.49705354016048</v>
       </c>
     </row>
     <row r="67">
@@ -5484,16 +5472,16 @@
         <v>0.0703994828258263</v>
       </c>
       <c r="H67" t="n">
-        <v>2.08921060916789</v>
+        <v>2.30051741181778</v>
       </c>
       <c r="I67" t="n">
-        <v>1.61850193570925</v>
+        <v>1.78178593866734</v>
       </c>
       <c r="J67" t="n">
-        <v>2.30051741181778</v>
+        <v>-0.57950497946061</v>
       </c>
       <c r="K67" t="n">
-        <v>0.76103273674335</v>
+        <v>1.22031028427558</v>
       </c>
     </row>
     <row r="68">
@@ -5519,16 +5507,16 @@
         <v>3.40452190490888</v>
       </c>
       <c r="H68" t="n">
-        <v>2.16443793480123</v>
+        <v>2.38344180262715</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.66448228832433</v>
+        <v>-1.82939907181</v>
       </c>
       <c r="J68" t="n">
-        <v>2.38344180262715</v>
+        <v>4.65743612686809</v>
       </c>
       <c r="K68" t="n">
-        <v>0.788250880654862</v>
+        <v>1.60100866827155</v>
       </c>
     </row>
     <row r="69">
@@ -5554,16 +5542,16 @@
         <v>1.14223799776188</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.46852126592893</v>
+        <v>-1.61418202520698</v>
       </c>
       <c r="I69" t="n">
-        <v>2.04588475529104</v>
+        <v>2.25276134143864</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.61418202520698</v>
+        <v>1.69786754556234</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.540982012964908</v>
+        <v>0.732206571983518</v>
       </c>
     </row>
     <row r="70">
@@ -5589,16 +5577,16 @@
         <v>0.0653793671893116</v>
       </c>
       <c r="H70" t="n">
-        <v>1.79579797583922</v>
+        <v>1.97714198823169</v>
       </c>
       <c r="I70" t="n">
-        <v>0.49332059897742</v>
+        <v>0.542786312111221</v>
       </c>
       <c r="J70" t="n">
-        <v>1.97714198823169</v>
+        <v>0.620523811633111</v>
       </c>
       <c r="K70" t="n">
-        <v>0.654750984526675</v>
+        <v>1.05933536055585</v>
       </c>
     </row>
     <row r="71">
@@ -5624,16 +5612,16 @@
         <v>48.5825907151327</v>
       </c>
       <c r="H71" t="n">
-        <v>1.70629873715622</v>
+        <v>1.8785217802251</v>
       </c>
       <c r="I71" t="n">
-        <v>0.367650013901466</v>
+        <v>0.404489275032427</v>
       </c>
       <c r="J71" t="n">
-        <v>1.8785217802251</v>
+        <v>0.110026702385158</v>
       </c>
       <c r="K71" t="n">
-        <v>0.62229340319353</v>
+        <v>0.818413070427093</v>
       </c>
     </row>
     <row r="72">
@@ -5659,16 +5647,16 @@
         <v>3660.1436495062</v>
       </c>
       <c r="H72" t="n">
-        <v>2.68534179792976</v>
+        <v>2.95781051147577</v>
       </c>
       <c r="I72" t="n">
-        <v>3.70590983946606</v>
+        <v>4.08397186434781</v>
       </c>
       <c r="J72" t="n">
-        <v>2.95781051147577</v>
+        <v>2.95466898236261</v>
       </c>
       <c r="K72" t="n">
-        <v>0.976372773239764</v>
+        <v>3.3437802611092</v>
       </c>
     </row>
     <row r="73">
@@ -5694,16 +5682,16 @@
         <v>1157.84039383199</v>
       </c>
       <c r="H73" t="n">
-        <v>3.09722020454506</v>
+        <v>3.41216993562832</v>
       </c>
       <c r="I73" t="n">
-        <v>2.57426617442698</v>
+        <v>2.83530974869548</v>
       </c>
       <c r="J73" t="n">
-        <v>3.41216993562832</v>
+        <v>4.42549563058603</v>
       </c>
       <c r="K73" t="n">
-        <v>1.12469320829516</v>
+        <v>3.5257076319817</v>
       </c>
     </row>
     <row r="74">
@@ -5729,16 +5717,16 @@
         <v>0.100473257321361</v>
       </c>
       <c r="H74" t="n">
-        <v>3.79255745782365</v>
+        <v>4.17963570303133</v>
       </c>
       <c r="I74" t="n">
-        <v>3.88335290140411</v>
+        <v>4.27988754281026</v>
       </c>
       <c r="J74" t="n">
-        <v>4.17963570303133</v>
+        <v>2.90675795420183</v>
       </c>
       <c r="K74" t="n">
-        <v>1.37424003424891</v>
+        <v>3.81735592033459</v>
       </c>
     </row>
     <row r="75">
@@ -5764,16 +5752,16 @@
         <v>48.0459165929712</v>
       </c>
       <c r="H75" t="n">
-        <v>-4.44350608096941</v>
+        <v>-4.87684917778734</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.21272143140706</v>
+        <v>-2.43128263360061</v>
       </c>
       <c r="J75" t="n">
-        <v>-4.87684917778734</v>
+        <v>-5.44432190418661</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.65278280624447</v>
+        <v>-4.21858089246603</v>
       </c>
     </row>
     <row r="76">
@@ -5799,16 +5787,16 @@
         <v>724.994514038211</v>
       </c>
       <c r="H76" t="n">
-        <v>4.88353682530727</v>
+        <v>5.38481958497898</v>
       </c>
       <c r="I76" t="n">
-        <v>1.73270918238415</v>
+        <v>1.90762284174413</v>
       </c>
       <c r="J76" t="n">
-        <v>5.38481958497898</v>
+        <v>1.02444028265731</v>
       </c>
       <c r="K76" t="n">
-        <v>1.76365230748781</v>
+        <v>2.81538723765749</v>
       </c>
     </row>
     <row r="77">
@@ -5834,16 +5822,16 @@
         <v>37.6427185497191</v>
       </c>
       <c r="H77" t="n">
-        <v>1.98144249401455</v>
+        <v>2.1817333897916</v>
       </c>
       <c r="I77" t="n">
-        <v>3.46359721706799</v>
+        <v>3.81648756342665</v>
       </c>
       <c r="J77" t="n">
-        <v>2.1817333897916</v>
+        <v>11.0934054488449</v>
       </c>
       <c r="K77" t="n">
-        <v>0.722018805165159</v>
+        <v>5.44363318629095</v>
       </c>
     </row>
     <row r="78">
@@ -5869,16 +5857,16 @@
         <v>2.45013681664823</v>
       </c>
       <c r="H78" t="n">
-        <v>3.36249337047281</v>
+        <v>3.70489946022778</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.57833477417061</v>
+        <v>-1.73479158757835</v>
       </c>
       <c r="J78" t="n">
-        <v>3.70489946022778</v>
+        <v>8.02166388556467</v>
       </c>
       <c r="K78" t="n">
-        <v>1.22002143233237</v>
+        <v>3.09252648414258</v>
       </c>
     </row>
     <row r="79">
@@ -5904,16 +5892,16 @@
         <v>333.80522691192</v>
       </c>
       <c r="H79" t="n">
-        <v>6.34708147660241</v>
+        <v>7.00353699118836</v>
       </c>
       <c r="I79" t="n">
-        <v>3.8782962596863</v>
+        <v>4.27430401855227</v>
       </c>
       <c r="J79" t="n">
-        <v>7.00353699118836</v>
+        <v>1.79807637432088</v>
       </c>
       <c r="K79" t="n">
-        <v>2.28203916356837</v>
+        <v>4.42566696846232</v>
       </c>
     </row>
     <row r="80">
@@ -5939,16 +5927,16 @@
         <v>1.97040285027194</v>
       </c>
       <c r="H80" t="n">
-        <v>14.7760941173876</v>
+        <v>16.3688079545059</v>
       </c>
       <c r="I80" t="n">
-        <v>3.98006916883422</v>
+        <v>4.38668650166214</v>
       </c>
       <c r="J80" t="n">
-        <v>16.3688079545059</v>
+        <v>7.66624765495165</v>
       </c>
       <c r="K80" t="n">
-        <v>5.18299395552639</v>
+        <v>9.41764188658178</v>
       </c>
     </row>
     <row r="81">
@@ -5974,16 +5962,16 @@
         <v>0.00217821994521092</v>
       </c>
       <c r="H81" t="n">
-        <v>0.965922577543954</v>
+        <v>1.06302650861736</v>
       </c>
       <c r="I81" t="n">
-        <v>0.138982700441215</v>
+        <v>0.1528915899637</v>
       </c>
       <c r="J81" t="n">
-        <v>1.06302650861736</v>
+        <v>0.240409553793963</v>
       </c>
       <c r="K81" t="n">
-        <v>0.35309394876899</v>
+        <v>0.49303899683093</v>
       </c>
     </row>
     <row r="82">
@@ -6009,16 +5997,16 @@
         <v>0.0485306506788536</v>
       </c>
       <c r="H82" t="n">
-        <v>0.72238395827684</v>
+        <v>0.79490874545376</v>
       </c>
       <c r="I82" t="n">
-        <v>0.511410949047986</v>
+        <v>0.562695671428881</v>
       </c>
       <c r="J82" t="n">
-        <v>0.79490874545376</v>
+        <v>1.93923867476158</v>
       </c>
       <c r="K82" t="n">
-        <v>0.264270577225489</v>
+        <v>1.06824891186863</v>
       </c>
     </row>
     <row r="83">
@@ -6044,16 +6032,16 @@
         <v>66.9481481966551</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.173525249653994</v>
+        <v>-0.190861204934245</v>
       </c>
       <c r="I83" t="n">
-        <v>3.60828117937055</v>
+        <v>3.9761939150041</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.190861204934245</v>
+        <v>6.67483052817579</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.063660920172337</v>
+        <v>3.33847908017804</v>
       </c>
     </row>
     <row r="84">
@@ -6079,16 +6067,16 @@
         <v>152.771702661717</v>
       </c>
       <c r="H84" t="n">
-        <v>2.15774467776082</v>
+        <v>2.37606346131916</v>
       </c>
       <c r="I84" t="n">
-        <v>2.44733555312631</v>
+        <v>2.69533939786419</v>
       </c>
       <c r="J84" t="n">
-        <v>2.37606346131916</v>
+        <v>3.04920456245825</v>
       </c>
       <c r="K84" t="n">
-        <v>0.785829694942408</v>
+        <v>2.69470420197744</v>
       </c>
     </row>
     <row r="85">
@@ -6114,16 +6102,16 @@
         <v>0.00401979612239691</v>
       </c>
       <c r="H85" t="n">
-        <v>1.44980469692046</v>
+        <v>1.59593623626475</v>
       </c>
       <c r="I85" t="n">
-        <v>1.98198639374205</v>
+        <v>2.18233285468883</v>
       </c>
       <c r="J85" t="n">
-        <v>1.59593623626475</v>
+        <v>2.42496081495644</v>
       </c>
       <c r="K85" t="n">
-        <v>0.529173559472995</v>
+        <v>2.05483338116783</v>
       </c>
     </row>
     <row r="86">
@@ -6149,16 +6137,16 @@
         <v>51.8231016782551</v>
       </c>
       <c r="H86" t="n">
-        <v>1.21595939204089</v>
+        <v>1.33836558826441</v>
       </c>
       <c r="I86" t="n">
-        <v>1.27951105329214</v>
+        <v>1.40835915483084</v>
       </c>
       <c r="J86" t="n">
-        <v>1.33836558826441</v>
+        <v>2.77634657563233</v>
       </c>
       <c r="K86" t="n">
-        <v>0.444146283049829</v>
+        <v>1.80670520914852</v>
       </c>
     </row>
     <row r="87">
@@ -6184,16 +6172,16 @@
         <v>5.74890309486372</v>
       </c>
       <c r="H87" t="n">
-        <v>3.94668847512825</v>
+        <v>4.34982474045953</v>
       </c>
       <c r="I87" t="n">
-        <v>2.66486296783588</v>
+        <v>2.93522425047787</v>
       </c>
       <c r="J87" t="n">
-        <v>4.34982474045953</v>
+        <v>4.41972525878473</v>
       </c>
       <c r="K87" t="n">
-        <v>1.42941203899694</v>
+        <v>3.88143531202281</v>
       </c>
     </row>
     <row r="88">
@@ -6219,16 +6207,16 @@
         <v>0.00144072226803522</v>
       </c>
       <c r="H88" t="n">
-        <v>0.485003966677144</v>
+        <v>0.533633551400126</v>
       </c>
       <c r="I88" t="n">
-        <v>0.929725304877227</v>
+        <v>1.02317192920454</v>
       </c>
       <c r="J88" t="n">
-        <v>0.533633551400126</v>
+        <v>0.635852817352989</v>
       </c>
       <c r="K88" t="n">
-        <v>0.177562379870677</v>
+        <v>0.733936606135011</v>
       </c>
     </row>
     <row r="89">
@@ -6254,16 +6242,16 @@
         <v>0.00340146688591363</v>
       </c>
       <c r="H89" t="n">
-        <v>6.7308672452508</v>
+        <v>7.42838382068067</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.757789324752889</v>
+        <v>-0.833251702060722</v>
       </c>
       <c r="J89" t="n">
-        <v>7.42838382068067</v>
+        <v>0.261828285897225</v>
       </c>
       <c r="K89" t="n">
-        <v>2.41722726921225</v>
+        <v>2.28926537268803</v>
       </c>
     </row>
     <row r="90">
@@ -6289,16 +6277,16 @@
         <v>516.245087222965</v>
       </c>
       <c r="H90" t="n">
-        <v>2.97180567173856</v>
+        <v>3.27380093009433</v>
       </c>
       <c r="I90" t="n">
-        <v>2.6982972465093</v>
+        <v>2.97209940910996</v>
       </c>
       <c r="J90" t="n">
-        <v>3.27380093009433</v>
+        <v>3.20436322895397</v>
       </c>
       <c r="K90" t="n">
-        <v>1.07957031573047</v>
+        <v>3.14813330509336</v>
       </c>
     </row>
     <row r="91">
@@ -6324,16 +6312,16 @@
         <v>1.35706823768134</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.38233300315148</v>
+        <v>-0.420485812893234</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.10778507514283</v>
+        <v>-0.118557190897584</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.420485812893234</v>
+        <v>-5.21441241853731</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.140358851531286</v>
+        <v>-1.83121654395662</v>
       </c>
     </row>
     <row r="92">
@@ -6359,16 +6347,16 @@
         <v>18.0359232449388</v>
       </c>
       <c r="H92" t="n">
-        <v>4.89321992215888</v>
+        <v>5.39552194849202</v>
       </c>
       <c r="I92" t="n">
-        <v>1.58047123237373</v>
+        <v>1.73988572925345</v>
       </c>
       <c r="J92" t="n">
-        <v>5.39552194849202</v>
+        <v>11.1836702961026</v>
       </c>
       <c r="K92" t="n">
-        <v>1.7670970627429</v>
+        <v>5.86233922487143</v>
       </c>
     </row>
     <row r="93">
@@ -6394,16 +6382,16 @@
         <v>247.976974529129</v>
       </c>
       <c r="H93" t="n">
-        <v>2.91933923073504</v>
+        <v>3.21592005915157</v>
       </c>
       <c r="I93" t="n">
-        <v>1.32378171681042</v>
+        <v>1.45711990363739</v>
       </c>
       <c r="J93" t="n">
-        <v>3.21592005915157</v>
+        <v>4.24183600712134</v>
       </c>
       <c r="K93" t="n">
-        <v>1.06068308955118</v>
+        <v>2.92144721947343</v>
       </c>
     </row>
     <row r="94">
@@ -6464,16 +6452,16 @@
         <v>0.615173248511992</v>
       </c>
       <c r="H95" t="n">
-        <v>0.983199815974967</v>
+        <v>1.0820499116595</v>
       </c>
       <c r="I95" t="n">
-        <v>1.76701352728266</v>
+        <v>1.94542313748873</v>
       </c>
       <c r="J95" t="n">
-        <v>1.0820499116595</v>
+        <v>5.13832006236068</v>
       </c>
       <c r="K95" t="n">
-        <v>0.359390143822091</v>
+        <v>2.62438970566601</v>
       </c>
     </row>
     <row r="96">
@@ -6499,16 +6487,16 @@
         <v>65.7923502990202</v>
       </c>
       <c r="H96" t="n">
-        <v>4.89095795307222</v>
+        <v>5.3930218701151</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.176195720127692</v>
+        <v>-0.193798208394946</v>
       </c>
       <c r="J96" t="n">
-        <v>5.3930218701151</v>
+        <v>1.79520372506876</v>
       </c>
       <c r="K96" t="n">
-        <v>1.76629238677595</v>
+        <v>2.32312203340272</v>
       </c>
     </row>
     <row r="97">
@@ -6534,16 +6522,16 @@
         <v>0.565337981470385</v>
       </c>
       <c r="H97" t="n">
-        <v>1.13081695448694</v>
+        <v>1.24459958756205</v>
       </c>
       <c r="I97" t="n">
-        <v>1.80592463400024</v>
+        <v>1.98830121184936</v>
       </c>
       <c r="J97" t="n">
-        <v>1.24459958756205</v>
+        <v>4.91481375038358</v>
       </c>
       <c r="K97" t="n">
-        <v>0.413157189704538</v>
+        <v>2.62835427358956</v>
       </c>
     </row>
     <row r="98">
@@ -6569,16 +6557,16 @@
         <v>44.8180127508524</v>
       </c>
       <c r="H98" t="n">
-        <v>1.87806758066607</v>
+        <v>2.0678034310627</v>
       </c>
       <c r="I98" t="n">
-        <v>1.61829641820712</v>
+        <v>1.78155950618228</v>
       </c>
       <c r="J98" t="n">
-        <v>2.0678034310627</v>
+        <v>3.58088099066654</v>
       </c>
       <c r="K98" t="n">
-        <v>0.684570745457114</v>
+        <v>2.43575084885161</v>
       </c>
     </row>
     <row r="99">
@@ -6604,16 +6592,16 @@
         <v>308.190906035478</v>
       </c>
       <c r="H99" t="n">
-        <v>5.34997218073523</v>
+        <v>5.9004651770791</v>
       </c>
       <c r="I99" t="n">
-        <v>1.67692444589931</v>
+        <v>1.84615581264536</v>
       </c>
       <c r="J99" t="n">
-        <v>5.9004651770791</v>
+        <v>0.183100612424036</v>
       </c>
       <c r="K99" t="n">
-        <v>1.92935810259987</v>
+        <v>2.70026455965178</v>
       </c>
     </row>
     <row r="100">
@@ -6639,16 +6627,16 @@
         <v>415.464692928509</v>
       </c>
       <c r="H100" t="n">
-        <v>2.95351451495942</v>
+        <v>3.25362182822533</v>
       </c>
       <c r="I100" t="n">
-        <v>2.95739952225145</v>
+        <v>3.25790780151844</v>
       </c>
       <c r="J100" t="n">
-        <v>3.25362182822533</v>
+        <v>0.244214717209856</v>
       </c>
       <c r="K100" t="n">
-        <v>1.07298643291762</v>
+        <v>2.31158863740133</v>
       </c>
     </row>
     <row r="101">
@@ -6674,16 +6662,16 @@
         <v>5.84410545700126</v>
       </c>
       <c r="H101" t="n">
-        <v>4.23732727771509</v>
+        <v>4.67081215646021</v>
       </c>
       <c r="I101" t="n">
-        <v>15.4099366944276</v>
+        <v>17.0759048675768</v>
       </c>
       <c r="J101" t="n">
-        <v>4.67081215646021</v>
+        <v>0.609687550221505</v>
       </c>
       <c r="K101" t="n">
-        <v>1.53330692260574</v>
+        <v>7.46453177050515</v>
       </c>
     </row>
     <row r="102">
@@ -6709,16 +6697,16 @@
         <v>0.000383358603908071</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.127909670110271</v>
+        <v>-0.140691635180179</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.26676783927974</v>
+        <v>-1.39255866336642</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.140691635180179</v>
+        <v>0.668530309980886</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.0469192224180959</v>
+        <v>-0.324802896797505</v>
       </c>
     </row>
     <row r="103">
@@ -6744,16 +6732,16 @@
         <v>0.240994986034774</v>
       </c>
       <c r="H103" t="n">
-        <v>0.434838262876514</v>
+        <v>0.478425950152039</v>
       </c>
       <c r="I103" t="n">
-        <v>0.804080326101198</v>
+        <v>0.884843104023791</v>
       </c>
       <c r="J103" t="n">
-        <v>0.478425950152039</v>
+        <v>1.60810677135945</v>
       </c>
       <c r="K103" t="n">
-        <v>0.159221666775156</v>
+        <v>0.968110915292897</v>
       </c>
     </row>
     <row r="104">
@@ -6779,16 +6767,16 @@
         <v>0.0066151427710083</v>
       </c>
       <c r="H104" t="n">
-        <v>1.41415076504918</v>
+        <v>1.55666110867316</v>
       </c>
       <c r="I104" t="n">
-        <v>1.1680974015994</v>
+        <v>1.28565497480901</v>
       </c>
       <c r="J104" t="n">
-        <v>1.55666110867316</v>
+        <v>1.34875094913702</v>
       </c>
       <c r="K104" t="n">
-        <v>0.516217644261374</v>
+        <v>1.39861892778115</v>
       </c>
     </row>
     <row r="105">
@@ -6849,16 +6837,16 @@
         <v>0.755067421604115</v>
       </c>
       <c r="H106" t="n">
-        <v>0.939048425110789</v>
+        <v>1.03343690394704</v>
       </c>
       <c r="I106" t="n">
-        <v>2.06818550275014</v>
+        <v>2.27734216330022</v>
       </c>
       <c r="J106" t="n">
-        <v>1.03343690394704</v>
+        <v>1.36257356137239</v>
       </c>
       <c r="K106" t="n">
-        <v>0.343299076779258</v>
+        <v>1.56311420218895</v>
       </c>
     </row>
     <row r="107">
@@ -6884,16 +6872,16 @@
         <v>469.652964011872</v>
       </c>
       <c r="H107" t="n">
-        <v>4.13791465730327</v>
+        <v>4.56100874905101</v>
       </c>
       <c r="I107" t="n">
-        <v>5.28561715287663</v>
+        <v>5.8293069133261</v>
       </c>
       <c r="J107" t="n">
-        <v>4.56100874905101</v>
+        <v>5.12243817124634</v>
       </c>
       <c r="K107" t="n">
-        <v>1.49779048278975</v>
+        <v>5.17126632297904</v>
       </c>
     </row>
     <row r="108">
@@ -6919,16 +6907,16 @@
         <v>0.00929835096968999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.37229771883871</v>
+        <v>0.409603638803935</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.0872791928310357</v>
+        <v>-0.0960029213050384</v>
       </c>
       <c r="J108" t="n">
-        <v>0.409603638803935</v>
+        <v>-0.406481852343454</v>
       </c>
       <c r="K108" t="n">
-        <v>0.136348552495424</v>
+        <v>-0.018571102492948</v>
       </c>
     </row>
     <row r="109">
@@ -6954,16 +6942,16 @@
         <v>9.35982422338104</v>
       </c>
       <c r="H109" t="n">
-        <v>-4.15161008569671</v>
+        <v>-4.5571709134665</v>
       </c>
       <c r="I109" t="n">
-        <v>0.989730536364597</v>
+        <v>1.08924075938626</v>
       </c>
       <c r="J109" t="n">
-        <v>-4.5571709134665</v>
+        <v>1.81903780106014</v>
       </c>
       <c r="K109" t="n">
-        <v>-1.54273488862938</v>
+        <v>-0.673070604492942</v>
       </c>
     </row>
     <row r="110">
@@ -6989,16 +6977,16 @@
         <v>609.893911884865</v>
       </c>
       <c r="H110" t="n">
-        <v>1.58587109011536</v>
+        <v>1.74583491022713</v>
       </c>
       <c r="I110" t="n">
-        <v>0.845369796768192</v>
+        <v>0.93029884114264</v>
       </c>
       <c r="J110" t="n">
-        <v>1.74583491022713</v>
+        <v>0.238672864175626</v>
       </c>
       <c r="K110" t="n">
-        <v>0.57859084002978</v>
+        <v>0.995027511007551</v>
       </c>
     </row>
     <row r="111">
@@ -7024,16 +7012,16 @@
         <v>88.2186412221432</v>
       </c>
       <c r="H111" t="n">
-        <v>0.428049905627592</v>
+        <v>0.47095554173997</v>
       </c>
       <c r="I111" t="n">
-        <v>0.602372375515148</v>
+        <v>0.662808822313998</v>
       </c>
       <c r="J111" t="n">
-        <v>0.47095554173997</v>
+        <v>-0.505075008869826</v>
       </c>
       <c r="K111" t="n">
-        <v>0.156739379892801</v>
+        <v>0.232944196813301</v>
       </c>
     </row>
     <row r="112">
@@ -7059,16 +7047,16 @@
         <v>133.002256186842</v>
       </c>
       <c r="H112" t="n">
-        <v>0.74989137373751</v>
+        <v>0.825189103177415</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.529800695380156</v>
+        <v>-0.582626140101494</v>
       </c>
       <c r="J112" t="n">
-        <v>0.825189103177415</v>
+        <v>-1.22738882527889</v>
       </c>
       <c r="K112" t="n">
-        <v>0.274309887226898</v>
+        <v>-0.30092977846925</v>
       </c>
     </row>
     <row r="113">
@@ -7094,16 +7082,16 @@
         <v>0.656999140757082</v>
       </c>
       <c r="H113" t="n">
-        <v>-2.33620638828459</v>
+        <v>-2.56680392864135</v>
       </c>
       <c r="I113" t="n">
-        <v>2.75912884364522</v>
+        <v>3.03919455296273</v>
       </c>
       <c r="J113" t="n">
-        <v>-2.56680392864135</v>
+        <v>-2.09517446610378</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.863028057211201</v>
+        <v>-0.520052136818738</v>
       </c>
     </row>
     <row r="114">
@@ -7129,16 +7117,16 @@
         <v>35.7742028104252</v>
       </c>
       <c r="H114" t="n">
-        <v>-4.36393065379717</v>
+        <v>-4.7897095375295</v>
       </c>
       <c r="I114" t="n">
-        <v>3.25534736683679</v>
+        <v>3.58665455352956</v>
       </c>
       <c r="J114" t="n">
-        <v>-4.7897095375295</v>
+        <v>2.76942885324678</v>
       </c>
       <c r="K114" t="n">
-        <v>-1.62276093288121</v>
+        <v>0.371105028520358</v>
       </c>
     </row>
     <row r="115">
@@ -7164,16 +7152,16 @@
         <v>58.8845267109538</v>
       </c>
       <c r="H115" t="n">
-        <v>-4.53483949228425</v>
+        <v>-4.97685553847185</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.040252389026485</v>
+        <v>-0.0442767366813479</v>
       </c>
       <c r="J115" t="n">
-        <v>-4.97685553847185</v>
+        <v>-0.573464980573057</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.68726020371982</v>
+        <v>-1.9351212140205</v>
       </c>
     </row>
     <row r="116">
@@ -7199,16 +7187,16 @@
         <v>766.116745706802</v>
       </c>
       <c r="H116" t="n">
-        <v>1.86399215563029</v>
+        <v>2.05229173548731</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0175824029013061</v>
+        <v>0.019340813209956</v>
       </c>
       <c r="J116" t="n">
-        <v>2.05229173548731</v>
+        <v>0.554450992166777</v>
       </c>
       <c r="K116" t="n">
-        <v>0.679469993858617</v>
+        <v>0.882659758207271</v>
       </c>
     </row>
     <row r="117">
@@ -7304,16 +7292,16 @@
         <v>26.3945968344953</v>
       </c>
       <c r="H119" t="n">
-        <v>-2.45454552076819</v>
+        <v>-2.69666174728491</v>
       </c>
       <c r="I119" t="n">
-        <v>1.0364783380491</v>
+        <v>1.1407152016504</v>
       </c>
       <c r="J119" t="n">
-        <v>-2.69666174728491</v>
+        <v>-1.22996764591373</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.907090502016128</v>
+        <v>-0.931245647653811</v>
       </c>
     </row>
     <row r="120">
@@ -7339,16 +7327,16 @@
         <v>8.96883434719635</v>
       </c>
       <c r="H120" t="n">
-        <v>3.85429186207067</v>
+        <v>4.24779882618065</v>
       </c>
       <c r="I120" t="n">
-        <v>1.4687244796272</v>
+        <v>1.61677816949959</v>
       </c>
       <c r="J120" t="n">
-        <v>4.24779882618065</v>
+        <v>-0.597195715717636</v>
       </c>
       <c r="K120" t="n">
-        <v>1.39634441282706</v>
+        <v>1.81798852432831</v>
       </c>
     </row>
     <row r="121">
@@ -7374,16 +7362,16 @@
         <v>128.787289155753</v>
       </c>
       <c r="H121" t="n">
-        <v>-2.17685068808576</v>
+        <v>-2.39191228483953</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.563683589298702</v>
+        <v>-0.619876895358651</v>
       </c>
       <c r="J121" t="n">
-        <v>-2.39191228483953</v>
+        <v>-1.26725525180741</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.803746877790357</v>
+        <v>-1.43464641357197</v>
       </c>
     </row>
     <row r="122">
@@ -7409,16 +7397,16 @@
         <v>46.3490765440613</v>
       </c>
       <c r="H122" t="n">
-        <v>0.121520803249897</v>
+        <v>0.13368100263369</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.877252882733992</v>
+        <v>-0.964553787469624</v>
       </c>
       <c r="J122" t="n">
-        <v>0.13368100263369</v>
+        <v>-3.67863384770877</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0445404927109205</v>
+        <v>-1.44084520115576</v>
       </c>
     </row>
     <row r="123">
@@ -7444,16 +7432,16 @@
         <v>22.1785393213399</v>
       </c>
       <c r="H123" t="n">
-        <v>-6.21220101625101</v>
+        <v>-6.81178814700827</v>
       </c>
       <c r="I123" t="n">
-        <v>2.29326646439578</v>
+        <v>2.52546591411016</v>
       </c>
       <c r="J123" t="n">
-        <v>-6.81178814700827</v>
+        <v>-1.79070530645679</v>
       </c>
       <c r="K123" t="n">
-        <v>-2.32419643812027</v>
+        <v>-2.11086194892052</v>
       </c>
     </row>
     <row r="124">
@@ -7479,16 +7467,16 @@
         <v>0.0468411039430275</v>
       </c>
       <c r="H124" t="n">
-        <v>0.108496469586061</v>
+        <v>0.119352588754573</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.00591856084317666</v>
+        <v>-0.00651039766099704</v>
       </c>
       <c r="J124" t="n">
-        <v>0.119352588754573</v>
+        <v>0.188279281452508</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0397683789154168</v>
+        <v>0.0973103651315865</v>
       </c>
     </row>
     <row r="125">
@@ -7514,16 +7502,16 @@
         <v>73.480490249732</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0933037137747394</v>
+        <v>0.102638871883221</v>
       </c>
       <c r="I125" t="n">
-        <v>1.11937296307529</v>
+        <v>1.2319971050752</v>
       </c>
       <c r="J125" t="n">
-        <v>0.102638871883221</v>
+        <v>-2.9557107337434</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0342012586999063</v>
+        <v>-0.472394107216523</v>
       </c>
     </row>
     <row r="126">
@@ -7549,16 +7537,16 @@
         <v>446.285864201888</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0804086479608612</v>
+        <v>0.0884530679523321</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.637785429355853</v>
+        <v>-0.701339819287139</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0884530679523321</v>
+        <v>-1.51847692857406</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0294756669810381</v>
+        <v>-0.684716870161484</v>
       </c>
     </row>
     <row r="127">
@@ -7584,16 +7572,16 @@
         <v>827.539341487234</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.46767661529674</v>
+        <v>-1.61325428264144</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.915795417850807</v>
+        <v>-1.00691241210786</v>
       </c>
       <c r="J127" t="n">
-        <v>-1.61325428264144</v>
+        <v>-1.54448336565771</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.540669393130111</v>
+        <v>-1.38320875031718</v>
       </c>
     </row>
     <row r="128">
@@ -7619,16 +7607,16 @@
         <v>0.821773465161145</v>
       </c>
       <c r="H128" t="n">
-        <v>7.74229296434354</v>
+        <v>8.54875216313327</v>
       </c>
       <c r="I128" t="n">
-        <v>2.96330236122173</v>
+        <v>3.26441989494195</v>
       </c>
       <c r="J128" t="n">
-        <v>8.54875216313327</v>
+        <v>5.74365484432438</v>
       </c>
       <c r="K128" t="n">
-        <v>2.77203239346082</v>
+        <v>5.8332705634329</v>
       </c>
     </row>
     <row r="129">
@@ -7654,16 +7642,16 @@
         <v>88.668198702347</v>
       </c>
       <c r="H129" t="n">
-        <v>1.67825943754976</v>
+        <v>1.84762674858683</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.640783472247863</v>
+        <v>-0.704635552116228</v>
       </c>
       <c r="J129" t="n">
-        <v>1.84762674858683</v>
+        <v>-2.81009116341682</v>
       </c>
       <c r="K129" t="n">
-        <v>0.612121016245881</v>
+        <v>-0.495890931531251</v>
       </c>
     </row>
     <row r="130">
@@ -7689,16 +7677,16 @@
         <v>0.593498541698802</v>
       </c>
       <c r="H130" t="n">
-        <v>0.131795352269926</v>
+        <v>0.144984437230145</v>
       </c>
       <c r="I130" t="n">
-        <v>23.9177351153686</v>
+        <v>26.6038211669248</v>
       </c>
       <c r="J130" t="n">
-        <v>0.144984437230145</v>
+        <v>-2.23797697694849</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0483048084411131</v>
+        <v>7.76874376272925</v>
       </c>
     </row>
     <row r="131">
@@ -7759,16 +7747,16 @@
         <v>67.5705230391528</v>
       </c>
       <c r="H132" t="n">
-        <v>-2.15306927113066</v>
+        <v>-2.36580992002874</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.957192429779419</v>
+        <v>-1.05240629955627</v>
       </c>
       <c r="J132" t="n">
-        <v>-2.36580992002874</v>
+        <v>-0.170221518374403</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.794905308492466</v>
+        <v>-1.23559877987627</v>
       </c>
     </row>
     <row r="133">
@@ -7794,16 +7782,16 @@
         <v>4.83816910588175</v>
       </c>
       <c r="H133" t="n">
-        <v>-1.28917178028869</v>
+        <v>-1.41717132115373</v>
       </c>
       <c r="I133" t="n">
-        <v>2.21362212684677</v>
+        <v>2.43766169535975</v>
       </c>
       <c r="J133" t="n">
-        <v>-1.41717132115373</v>
+        <v>-0.413101076729228</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.474639704603608</v>
+        <v>0.21006680937643</v>
       </c>
     </row>
     <row r="134">
@@ -7829,16 +7817,16 @@
         <v>67.3997786789133</v>
       </c>
       <c r="H134" t="n">
-        <v>2.19521173657347</v>
+        <v>2.41736606023135</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.769183536818496</v>
+        <v>-0.84577573303648</v>
       </c>
       <c r="J134" t="n">
-        <v>2.41736606023135</v>
+        <v>-0.13339337009638</v>
       </c>
       <c r="K134" t="n">
-        <v>0.799381550986689</v>
+        <v>0.49054524552008</v>
       </c>
     </row>
     <row r="135">
@@ -7864,16 +7852,16 @@
         <v>412.023515351672</v>
       </c>
       <c r="H135" t="n">
-        <v>0.470200828825051</v>
+        <v>0.517342339412674</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.701439104226087</v>
+        <v>-0.771311834046584</v>
       </c>
       <c r="J135" t="n">
-        <v>0.517342339412674</v>
+        <v>-2.32287644709244</v>
       </c>
       <c r="K135" t="n">
-        <v>0.172150917026759</v>
+        <v>-0.815123665643114</v>
       </c>
     </row>
     <row r="136">
@@ -7899,16 +7887,16 @@
         <v>1245.6164672354</v>
       </c>
       <c r="H136" t="n">
-        <v>0.448218007905266</v>
+        <v>0.493150155094635</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.375552413194524</v>
+        <v>-0.413029995172631</v>
       </c>
       <c r="J136" t="n">
-        <v>0.493150155094635</v>
+        <v>-0.688659472111752</v>
       </c>
       <c r="K136" t="n">
-        <v>0.164113903958785</v>
+        <v>-0.187370681016064</v>
       </c>
     </row>
     <row r="137">
@@ -7934,16 +7922,16 @@
         <v>13.2535709835958</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.36641899831838</v>
+        <v>-9.16355591538519</v>
       </c>
       <c r="I137" t="n">
-        <v>1.81118367240178</v>
+        <v>1.99409653228702</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.16355591538519</v>
+        <v>0.0959189674919925</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.1528804676353</v>
+        <v>-2.56991824948198</v>
       </c>
     </row>
     <row r="138">
@@ -7969,16 +7957,16 @@
         <v>22.9111538557393</v>
       </c>
       <c r="H138" t="n">
-        <v>-7.81796550899045</v>
+        <v>-8.56532662681945</v>
       </c>
       <c r="I138" t="n">
-        <v>1.58217097624356</v>
+        <v>1.74175838330433</v>
       </c>
       <c r="J138" t="n">
-        <v>-8.56532662681945</v>
+        <v>-0.077544472029123</v>
       </c>
       <c r="K138" t="n">
-        <v>-2.94074072235558</v>
+        <v>-2.4850145226338</v>
       </c>
     </row>
     <row r="139">
@@ -8004,16 +7992,16 @@
         <v>10.6941704636843</v>
       </c>
       <c r="H139" t="n">
-        <v>-2.27542308467734</v>
+        <v>-2.50009808876919</v>
       </c>
       <c r="I139" t="n">
-        <v>1.99597946774435</v>
+        <v>2.19775558065802</v>
       </c>
       <c r="J139" t="n">
-        <v>-2.50009808876919</v>
+        <v>-1.52357858697411</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.840409118777485</v>
+        <v>-0.598101526658101</v>
       </c>
     </row>
     <row r="140">
@@ -8039,16 +8027,16 @@
         <v>2.12216382369673</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.501915902664396</v>
+        <v>-0.551968728036611</v>
       </c>
       <c r="I140" t="n">
-        <v>2.31132912591112</v>
+        <v>2.54538011883483</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.551968728036611</v>
+        <v>-3.99146278601781</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.184329139562667</v>
+        <v>-0.586531486662822</v>
       </c>
     </row>
     <row r="141">
@@ -8074,16 +8062,16 @@
         <v>192.023269301097</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3982373032825</v>
+        <v>0.438148155719698</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.351297821777818</v>
+        <v>-0.386359656714585</v>
       </c>
       <c r="J141" t="n">
-        <v>0.438148155719698</v>
+        <v>-1.74256359591788</v>
       </c>
       <c r="K141" t="n">
-        <v>0.145836598714699</v>
+        <v>-0.526899859231666</v>
       </c>
     </row>
     <row r="142">
@@ -8109,16 +8097,16 @@
         <v>88.08821826071</v>
       </c>
       <c r="H142" t="n">
-        <v>1.40555552667836</v>
+        <v>1.54719310046072</v>
       </c>
       <c r="I142" t="n">
-        <v>0.345434782292053</v>
+        <v>0.380043821475029</v>
       </c>
       <c r="J142" t="n">
-        <v>1.54719310046072</v>
+        <v>0.353601237708356</v>
       </c>
       <c r="K142" t="n">
-        <v>0.51309387755416</v>
+        <v>0.772746035455318</v>
       </c>
     </row>
     <row r="143">
@@ -8179,16 +8167,16 @@
         <v>72.3653615706519</v>
       </c>
       <c r="H144" t="n">
-        <v>1.21284017602816</v>
+        <v>1.33493030647462</v>
       </c>
       <c r="I144" t="n">
-        <v>0.347149668359981</v>
+        <v>0.381930848370904</v>
       </c>
       <c r="J144" t="n">
-        <v>1.33493030647462</v>
+        <v>-0.567488525338089</v>
       </c>
       <c r="K144" t="n">
-        <v>0.443011280711536</v>
+        <v>0.412956391548791</v>
       </c>
     </row>
     <row r="145">
@@ -8214,16 +8202,16 @@
         <v>417.157349849928</v>
       </c>
       <c r="H145" t="n">
-        <v>-1.88022196062848</v>
+        <v>-2.06628871102353</v>
       </c>
       <c r="I145" t="n">
-        <v>0.241993797711038</v>
+        <v>0.266225362675132</v>
       </c>
       <c r="J145" t="n">
-        <v>-2.06628871102353</v>
+        <v>-0.503713985906096</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.69356206630572</v>
+        <v>-0.781944630607523</v>
       </c>
     </row>
     <row r="146">
@@ -8249,16 +8237,16 @@
         <v>66.4023656012524</v>
       </c>
       <c r="H146" t="n">
-        <v>3.04542540231816</v>
+        <v>3.35502303927839</v>
       </c>
       <c r="I146" t="n">
-        <v>-1.4516112459725</v>
+        <v>-1.59560834209007</v>
       </c>
       <c r="J146" t="n">
-        <v>3.35502303927839</v>
+        <v>-0.519429101049873</v>
       </c>
       <c r="K146" t="n">
-        <v>1.10606217353595</v>
+        <v>0.42254204720531</v>
       </c>
     </row>
     <row r="147">
@@ -8284,16 +8272,16 @@
         <v>119.263095574349</v>
       </c>
       <c r="H147" t="n">
-        <v>-5.41295322050359</v>
+        <v>-5.93786487094951</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.843178921331789</v>
+        <v>-0.927104797495903</v>
       </c>
       <c r="J147" t="n">
-        <v>-5.93786487094951</v>
+        <v>-0.261327160410951</v>
       </c>
       <c r="K147" t="n">
-        <v>-2.01980994298453</v>
+        <v>-2.4819198567403</v>
       </c>
     </row>
     <row r="148">
@@ -8319,16 +8307,16 @@
         <v>0.0581310557727516</v>
       </c>
       <c r="H148" t="n">
-        <v>-11.7851210754682</v>
+        <v>-12.8843810449795</v>
       </c>
       <c r="I148" t="n">
-        <v>2.74043583738426</v>
+        <v>3.01857639191332</v>
       </c>
       <c r="J148" t="n">
-        <v>-12.8843810449795</v>
+        <v>-3.75238368865757</v>
       </c>
       <c r="K148" t="n">
-        <v>-4.49370254148945</v>
+        <v>-4.79883558208112</v>
       </c>
     </row>
     <row r="149">
@@ -8354,16 +8342,16 @@
         <v>45.5510719032925</v>
       </c>
       <c r="H149" t="n">
-        <v>-3.27728833398298</v>
+        <v>-3.59905082515329</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.317837410950095</v>
+        <v>-0.349565537645669</v>
       </c>
       <c r="J149" t="n">
-        <v>-3.59905082515329</v>
+        <v>-1.05337676863484</v>
       </c>
       <c r="K149" t="n">
-        <v>-1.21437088044888</v>
+        <v>-1.69873678672846</v>
       </c>
     </row>
     <row r="150">
@@ -8389,16 +8377,16 @@
         <v>20.2235790998338</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.741236723571714</v>
+        <v>-0.815057534041019</v>
       </c>
       <c r="I150" t="n">
-        <v>0.706317524205136</v>
+        <v>0.777223083601219</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.815057534041019</v>
+        <v>-1.52056201058</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.27242733726639</v>
+        <v>-0.489554999400521</v>
       </c>
     </row>
     <row r="151">
@@ -8424,16 +8412,16 @@
         <v>339.32180413825</v>
       </c>
       <c r="H151" t="n">
-        <v>2.51933568877669</v>
+        <v>2.7747340635349</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.313935325445625</v>
+        <v>-0.345274601399181</v>
       </c>
       <c r="J151" t="n">
-        <v>2.7747340635349</v>
+        <v>-1.27974945619765</v>
       </c>
       <c r="K151" t="n">
-        <v>0.916486224519142</v>
+        <v>0.425681377942855</v>
       </c>
     </row>
     <row r="152">
@@ -8459,16 +8447,16 @@
         <v>66.0896310984158</v>
       </c>
       <c r="H152" t="n">
-        <v>0.102914769699436</v>
+        <v>0.113212070169122</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.292699569071209</v>
+        <v>-0.321922364373795</v>
       </c>
       <c r="J152" t="n">
-        <v>0.113212070169122</v>
+        <v>-1.87736455313634</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0377231245923815</v>
+        <v>-0.658163619381424</v>
       </c>
     </row>
     <row r="153">
@@ -8494,16 +8482,16 @@
         <v>49.3543374472684</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.125348595939079</v>
+        <v>-0.137874810532579</v>
       </c>
       <c r="I153" t="n">
-        <v>0.247904241402064</v>
+        <v>0.272728441515646</v>
       </c>
       <c r="J153" t="n">
-        <v>-0.137874810532579</v>
+        <v>-1.3358289081686</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.0459794079969433</v>
+        <v>-0.37033358834595</v>
       </c>
     </row>
     <row r="154">
@@ -8529,16 +8517,16 @@
         <v>565.818877350539</v>
       </c>
       <c r="H154" t="n">
-        <v>3.36305847874125</v>
+        <v>3.70552313871408</v>
       </c>
       <c r="I154" t="n">
-        <v>2.51796906009927</v>
+        <v>2.77322702796197</v>
       </c>
       <c r="J154" t="n">
-        <v>3.70552313871408</v>
+        <v>3.31199442759527</v>
       </c>
       <c r="K154" t="n">
-        <v>1.22022434342441</v>
+        <v>3.26118071468937</v>
       </c>
     </row>
     <row r="155">
@@ -8564,16 +8552,16 @@
         <v>277.647321526777</v>
       </c>
       <c r="H155" t="n">
-        <v>-6.59978014049153</v>
+        <v>-7.23531196544393</v>
       </c>
       <c r="I155" t="n">
-        <v>-1.1441096607966</v>
+        <v>-1.25779819947304</v>
       </c>
       <c r="J155" t="n">
-        <v>-7.23531196544393</v>
+        <v>-3.96425392171157</v>
       </c>
       <c r="K155" t="n">
-        <v>-2.47239421726601</v>
+        <v>-4.191241330457</v>
       </c>
     </row>
     <row r="156">
@@ -8599,16 +8587,16 @@
         <v>459.63497657441</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.957345418310795</v>
+        <v>-1.05257442514631</v>
       </c>
       <c r="I156" t="n">
-        <v>-1.44272822771927</v>
+        <v>-1.58585125571187</v>
       </c>
       <c r="J156" t="n">
-        <v>-1.05257442514631</v>
+        <v>-2.92227064037556</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.352096405501345</v>
+        <v>-1.81977333554931</v>
       </c>
     </row>
     <row r="157">
@@ -8634,16 +8622,16 @@
         <v>6252.72795777691</v>
       </c>
       <c r="H157" t="n">
-        <v>1.41091022678952</v>
+        <v>1.5530915132141</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.66174773328983</v>
+        <v>-0.727681176428796</v>
       </c>
       <c r="J157" t="n">
-        <v>1.5530915132141</v>
+        <v>-0.868068620050133</v>
       </c>
       <c r="K157" t="n">
-        <v>0.515039955425545</v>
+        <v>0.00901431612359005</v>
       </c>
     </row>
     <row r="158">
@@ -8669,16 +8657,16 @@
         <v>8.31226753773393</v>
       </c>
       <c r="H158" t="n">
-        <v>-11.8589609009899</v>
+        <v>-12.9645893520739</v>
       </c>
       <c r="I158" t="n">
-        <v>1.49449649639506</v>
+        <v>1.64516911299557</v>
       </c>
       <c r="J158" t="n">
-        <v>-12.9645893520739</v>
+        <v>1.7074618926858</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.52302277413174</v>
+        <v>-3.63238199799083</v>
       </c>
     </row>
     <row r="159">
@@ -8704,16 +8692,16 @@
         <v>60.5999301886119</v>
       </c>
       <c r="H159" t="n">
-        <v>-4.67011500677211</v>
+        <v>-5.1249591285039</v>
       </c>
       <c r="I159" t="n">
-        <v>1.35349147420301</v>
+        <v>1.48984412306701</v>
       </c>
       <c r="J159" t="n">
-        <v>-5.1249591285039</v>
+        <v>2.6690176911021</v>
       </c>
       <c r="K159" t="n">
-        <v>-1.73836368671879</v>
+        <v>-0.485534109434749</v>
       </c>
     </row>
     <row r="160">
@@ -8739,16 +8727,16 @@
         <v>104.316820236625</v>
       </c>
       <c r="H160" t="n">
-        <v>-5.15662682072858</v>
+        <v>-5.65743260346124</v>
       </c>
       <c r="I160" t="n">
-        <v>1.47758372430169</v>
+        <v>1.62653760048608</v>
       </c>
       <c r="J160" t="n">
-        <v>-5.65743260346124</v>
+        <v>1.34069622761548</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.92253542700677</v>
+        <v>-1.03314622149694</v>
       </c>
     </row>
     <row r="161">
@@ -8774,16 +8762,16 @@
         <v>16.3126811659255</v>
       </c>
       <c r="H161" t="n">
-        <v>-11.0845957684268</v>
+        <v>-12.1231040701936</v>
       </c>
       <c r="I161" t="n">
-        <v>0.279979323792312</v>
+        <v>0.308020333638814</v>
       </c>
       <c r="J161" t="n">
-        <v>-12.1231040701936</v>
+        <v>3.49603121215929</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.21630880921684</v>
+        <v>-3.23049598822344</v>
       </c>
     </row>
     <row r="162">
@@ -8809,16 +8797,16 @@
         <v>372.310207660297</v>
       </c>
       <c r="H162" t="n">
-        <v>-5.98875727954937</v>
+        <v>-6.56754229375107</v>
       </c>
       <c r="I162" t="n">
-        <v>5.43359233818497</v>
+        <v>5.99293166020587</v>
       </c>
       <c r="J162" t="n">
-        <v>-6.56754229375107</v>
+        <v>1.61741415919785</v>
       </c>
       <c r="K162" t="n">
-        <v>-2.23893494829007</v>
+        <v>0.162583594704979</v>
       </c>
     </row>
     <row r="163">
@@ -8844,16 +8832,16 @@
         <v>23.4359243439793</v>
       </c>
       <c r="H163" t="n">
-        <v>-9.62853670859056</v>
+        <v>-10.5388563355596</v>
       </c>
       <c r="I163" t="n">
-        <v>2.16233327591067</v>
+        <v>2.38112171744114</v>
       </c>
       <c r="J163" t="n">
-        <v>-10.5388563355596</v>
+        <v>5.75955455064081</v>
       </c>
       <c r="K163" t="n">
-        <v>-3.64413630084828</v>
+        <v>-1.2825822526342</v>
       </c>
     </row>
     <row r="164">
@@ -8879,16 +8867,16 @@
         <v>11.0082493947837</v>
       </c>
       <c r="H164" t="n">
-        <v>-2.07157626598733</v>
+        <v>-2.27635879243132</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0219375087395335</v>
+        <v>0.0241315242859308</v>
       </c>
       <c r="J164" t="n">
-        <v>-2.27635879243132</v>
+        <v>-0.380516361584904</v>
       </c>
       <c r="K164" t="n">
-        <v>-0.764617766553655</v>
+        <v>-0.899945752349052</v>
       </c>
     </row>
     <row r="165">
@@ -8914,16 +8902,16 @@
         <v>12.36414760917</v>
       </c>
       <c r="H165" t="n">
-        <v>-11.2687827514707</v>
+        <v>-12.3233226184613</v>
       </c>
       <c r="I165" t="n">
-        <v>1.27582455429005</v>
+        <v>1.40429885434548</v>
       </c>
       <c r="J165" t="n">
-        <v>-12.3233226184613</v>
+        <v>0.653003526119211</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.28910858458647</v>
+        <v>-3.77885459762642</v>
       </c>
     </row>
     <row r="166">
@@ -8949,16 +8937,16 @@
         <v>2370.8726685851</v>
       </c>
       <c r="H166" t="n">
-        <v>-3.2779182347956</v>
+        <v>-3.59974141081766</v>
       </c>
       <c r="I166" t="n">
-        <v>0.482302916880184</v>
+        <v>0.530660962732266</v>
       </c>
       <c r="J166" t="n">
-        <v>-3.59974141081766</v>
+        <v>0.576892091600656</v>
       </c>
       <c r="K166" t="n">
-        <v>-1.21460677059588</v>
+        <v>-0.899092829758297</v>
       </c>
     </row>
     <row r="167">
@@ -8984,16 +8972,16 @@
         <v>110.671542077599</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.280037692243718</v>
+        <v>-0.307998293574385</v>
       </c>
       <c r="I167" t="n">
-        <v>1.71285190238881</v>
+        <v>1.88574249163194</v>
       </c>
       <c r="J167" t="n">
-        <v>-0.307998293574385</v>
+        <v>1.0897017944169</v>
       </c>
       <c r="K167" t="n">
-        <v>-0.102771681861513</v>
+        <v>0.878016908102297</v>
       </c>
     </row>
     <row r="168">
@@ -9019,16 +9007,16 @@
         <v>20.2600787024064</v>
       </c>
       <c r="H168" t="n">
-        <v>-6.33734911028586</v>
+        <v>-6.94856183932845</v>
       </c>
       <c r="I168" t="n">
-        <v>0.920407522579403</v>
+        <v>1.01291292639303</v>
       </c>
       <c r="J168" t="n">
-        <v>-6.94856183932845</v>
+        <v>5.87874150073269</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.37200656825056</v>
+        <v>-0.362365971353884</v>
       </c>
     </row>
     <row r="169">
@@ -9054,16 +9042,16 @@
         <v>138.224740328901</v>
       </c>
       <c r="H169" t="n">
-        <v>-1.14334370465</v>
+        <v>-1.25695661635661</v>
       </c>
       <c r="I169" t="n">
-        <v>2.98246244098999</v>
+        <v>3.28555781664448</v>
       </c>
       <c r="J169" t="n">
-        <v>-1.25695661635661</v>
+        <v>3.4120339056507</v>
       </c>
       <c r="K169" t="n">
-        <v>-0.420753390024053</v>
+        <v>1.73467289718083</v>
       </c>
     </row>
     <row r="170">
@@ -9089,16 +9077,16 @@
         <v>171.230527868422</v>
       </c>
       <c r="H170" t="n">
-        <v>0.495077832164625</v>
+        <v>0.544720221764949</v>
       </c>
       <c r="I170" t="n">
-        <v>0.359116670243909</v>
+        <v>0.395099191611847</v>
       </c>
       <c r="J170" t="n">
-        <v>0.544720221764949</v>
+        <v>-0.991952470994872</v>
       </c>
       <c r="K170" t="n">
-        <v>0.18124471233667</v>
+        <v>0.0139141137053711</v>
       </c>
     </row>
     <row r="171">
@@ -9124,16 +9112,16 @@
         <v>640.247722306965</v>
       </c>
       <c r="H171" t="n">
-        <v>2.91628321312714</v>
+        <v>3.21254875766948</v>
       </c>
       <c r="I171" t="n">
-        <v>2.3448971215539</v>
+        <v>2.58238999157225</v>
       </c>
       <c r="J171" t="n">
-        <v>3.21254875766948</v>
+        <v>3.64860513043348</v>
       </c>
       <c r="K171" t="n">
-        <v>1.05958277563318</v>
+        <v>3.12966264646581</v>
       </c>
     </row>
     <row r="172">
@@ -9159,16 +9147,16 @@
         <v>763.40433901328</v>
       </c>
       <c r="H172" t="n">
-        <v>2.70389739616284</v>
+        <v>2.97827601407794</v>
       </c>
       <c r="I172" t="n">
-        <v>2.58192862682607</v>
+        <v>2.84375992827932</v>
       </c>
       <c r="J172" t="n">
-        <v>2.97827601407794</v>
+        <v>0.930957562863766</v>
       </c>
       <c r="K172" t="n">
-        <v>0.98306287701202</v>
+        <v>2.29237963037161</v>
       </c>
     </row>
     <row r="173">
@@ -9194,16 +9182,16 @@
         <v>0.0322041258517315</v>
       </c>
       <c r="H173" t="n">
-        <v>7.44584096064058</v>
+        <v>8.22025933270563</v>
       </c>
       <c r="I173" t="n">
-        <v>3.72824239264125</v>
+        <v>4.10862749345342</v>
       </c>
       <c r="J173" t="n">
-        <v>8.22025933270563</v>
+        <v>1.46542236433038</v>
       </c>
       <c r="K173" t="n">
-        <v>2.66825724638711</v>
+        <v>4.66975915760646</v>
       </c>
     </row>
     <row r="174">
@@ -9229,16 +9217,16 @@
         <v>0.613104213795123</v>
       </c>
       <c r="H174" t="n">
-        <v>0.38153022977534</v>
+        <v>0.419763222205516</v>
       </c>
       <c r="I174" t="n">
-        <v>2.23341081264288</v>
+        <v>2.45947717267281</v>
       </c>
       <c r="J174" t="n">
-        <v>0.419763222205516</v>
+        <v>-0.73343758693708</v>
       </c>
       <c r="K174" t="n">
-        <v>0.13972575028538</v>
+        <v>0.756668109010095</v>
       </c>
     </row>
     <row r="175">
@@ -9264,16 +9252,16 @@
         <v>391.904497510324</v>
       </c>
       <c r="H175" t="n">
-        <v>1.47651019148394</v>
+        <v>1.6253549816484</v>
       </c>
       <c r="I175" t="n">
-        <v>1.37247314159898</v>
+        <v>1.51075224298631</v>
       </c>
       <c r="J175" t="n">
-        <v>1.6253549816484</v>
+        <v>0.579361421565228</v>
       </c>
       <c r="K175" t="n">
-        <v>0.538875905379221</v>
+        <v>1.26017136809258</v>
       </c>
     </row>
     <row r="176">
@@ -9299,16 +9287,16 @@
         <v>0.89839145006465</v>
       </c>
       <c r="H176" t="n">
-        <v>5.00408771324232</v>
+        <v>5.51806699623367</v>
       </c>
       <c r="I176" t="n">
-        <v>1.09381006888216</v>
+        <v>1.20384695889157</v>
       </c>
       <c r="J176" t="n">
-        <v>5.51806699623367</v>
+        <v>-1.90608951784108</v>
       </c>
       <c r="K176" t="n">
-        <v>1.80652385946249</v>
+        <v>1.68150424578444</v>
       </c>
     </row>
     <row r="177">
@@ -9334,16 +9322,16 @@
         <v>2.57207330612531</v>
       </c>
       <c r="H177" t="n">
-        <v>1.3236990544053</v>
+        <v>1.45702885533687</v>
       </c>
       <c r="I177" t="n">
-        <v>-1.24005667194956</v>
+        <v>-1.36321341681396</v>
       </c>
       <c r="J177" t="n">
-        <v>1.45702885533687</v>
+        <v>-1.83144561146166</v>
       </c>
       <c r="K177" t="n">
-        <v>0.483336380737098</v>
+        <v>-0.546657630017833</v>
       </c>
     </row>
     <row r="178">
@@ -9369,16 +9357,16 @@
         <v>1.63525304398238</v>
       </c>
       <c r="H178" t="n">
-        <v>0.907040390044034</v>
+        <v>0.998195700273885</v>
       </c>
       <c r="I178" t="n">
-        <v>0.440590692202614</v>
+        <v>0.484756386683949</v>
       </c>
       <c r="J178" t="n">
-        <v>0.998195700273885</v>
+        <v>-1.26296040661892</v>
       </c>
       <c r="K178" t="n">
-        <v>0.331630893845403</v>
+        <v>0.114868913598154</v>
       </c>
     </row>
     <row r="179">
@@ -9404,16 +9392,16 @@
         <v>1.09189929764661</v>
       </c>
       <c r="H179" t="n">
-        <v>1.60720934250973</v>
+        <v>1.76934419543393</v>
       </c>
       <c r="I179" t="n">
-        <v>2.55701559680657</v>
+        <v>2.81628598176547</v>
       </c>
       <c r="J179" t="n">
-        <v>1.76934419543393</v>
+        <v>1.01330487150839</v>
       </c>
       <c r="K179" t="n">
-        <v>0.586336771146234</v>
+        <v>1.8930806825123</v>
       </c>
     </row>
     <row r="180">
@@ -9439,16 +9427,16 @@
         <v>59.8562894320474</v>
       </c>
       <c r="H180" t="n">
-        <v>0.268444007775326</v>
+        <v>0.295328010876705</v>
       </c>
       <c r="I180" t="n">
-        <v>3.30937563972122</v>
+        <v>3.64627790513492</v>
       </c>
       <c r="J180" t="n">
-        <v>0.295328010876705</v>
+        <v>3.05994148091242</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0983459193871772</v>
+        <v>2.29804883104467</v>
       </c>
     </row>
     <row r="181">
@@ -9509,16 +9497,16 @@
         <v>1290.96669068178</v>
       </c>
       <c r="H182" t="n">
-        <v>2.78538003572688</v>
+        <v>3.06814993525055</v>
       </c>
       <c r="I182" t="n">
-        <v>2.05641864076156</v>
+        <v>2.2643721661445</v>
       </c>
       <c r="J182" t="n">
-        <v>3.06814993525055</v>
+        <v>0.978572262568633</v>
       </c>
       <c r="K182" t="n">
-        <v>1.01243187012749</v>
+        <v>2.13895911237185</v>
       </c>
     </row>
     <row r="183">
@@ -9544,16 +9532,16 @@
         <v>0.183717379718583</v>
       </c>
       <c r="H183" t="n">
-        <v>5.12354874133432</v>
+        <v>5.65012485434822</v>
       </c>
       <c r="I183" t="n">
-        <v>4.55256374225719</v>
+        <v>5.01906692006719</v>
       </c>
       <c r="J183" t="n">
-        <v>5.65012485434822</v>
+        <v>1.40611105672079</v>
       </c>
       <c r="K183" t="n">
-        <v>1.84897708458867</v>
+        <v>4.09907173641304</v>
       </c>
     </row>
     <row r="184">
@@ -9579,16 +9567,16 @@
         <v>0.530522638991503</v>
       </c>
       <c r="H184" t="n">
-        <v>3.37023078830729</v>
+        <v>3.71343884649105</v>
       </c>
       <c r="I184" t="n">
-        <v>2.13846586018802</v>
+        <v>2.354811642219</v>
       </c>
       <c r="J184" t="n">
-        <v>3.71343884649105</v>
+        <v>-0.25872179817491</v>
       </c>
       <c r="K184" t="n">
-        <v>1.22279961395335</v>
+        <v>1.99920926766057</v>
       </c>
     </row>
     <row r="185">
@@ -9614,16 +9602,16 @@
         <v>118.90023809419</v>
       </c>
       <c r="H185" t="n">
-        <v>3.49137337641443</v>
+        <v>3.84714596204638</v>
       </c>
       <c r="I185" t="n">
-        <v>1.69065992711446</v>
+        <v>1.86129009171334</v>
       </c>
       <c r="J185" t="n">
-        <v>3.84714596204638</v>
+        <v>1.63139377396044</v>
       </c>
       <c r="K185" t="n">
-        <v>1.26627966432937</v>
+        <v>2.46986135912508</v>
       </c>
     </row>
     <row r="186">
@@ -9649,16 +9637,16 @@
         <v>207.316294668746</v>
       </c>
       <c r="H186" t="n">
-        <v>1.14746401435284</v>
+        <v>1.26293210692219</v>
       </c>
       <c r="I186" t="n">
-        <v>1.13872092851581</v>
+        <v>1.25330377507455</v>
       </c>
       <c r="J186" t="n">
-        <v>1.26293210692219</v>
+        <v>1.95606774744368</v>
       </c>
       <c r="K186" t="n">
-        <v>0.419217480195</v>
+        <v>1.47421013225992</v>
       </c>
     </row>
     <row r="187">
@@ -9684,16 +9672,16 @@
         <v>15.656721525124</v>
       </c>
       <c r="H187" t="n">
-        <v>1.11440352384662</v>
+        <v>1.22652464705473</v>
       </c>
       <c r="I187" t="n">
-        <v>1.86848664182329</v>
+        <v>2.05724482028371</v>
       </c>
       <c r="J187" t="n">
-        <v>1.22652464705473</v>
+        <v>1.57745687557214</v>
       </c>
       <c r="K187" t="n">
-        <v>0.407181332334372</v>
+        <v>1.62130032076633</v>
       </c>
     </row>
     <row r="188">
@@ -9719,16 +9707,16 @@
         <v>46.4127447854307</v>
       </c>
       <c r="H188" t="n">
-        <v>-2.03748355492598</v>
+        <v>-2.23893458098142</v>
       </c>
       <c r="I188" t="n">
-        <v>0.175061957567602</v>
+        <v>0.192585000158285</v>
       </c>
       <c r="J188" t="n">
-        <v>-2.23893458098142</v>
+        <v>-1.05776838739036</v>
       </c>
       <c r="K188" t="n">
-        <v>-0.751951667529593</v>
+        <v>-1.03906121215743</v>
       </c>
     </row>
     <row r="189">
@@ -9754,16 +9742,16 @@
         <v>0.00066418987</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.0831660949593527</v>
+        <v>-0.0914788993761406</v>
       </c>
       <c r="I189" t="n">
-        <v>-7.93264274815847</v>
+        <v>-8.69044109038489</v>
       </c>
       <c r="J189" t="n">
-        <v>-0.0914788993761406</v>
+        <v>-2.62837292325201</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.0305022693971368</v>
+        <v>-3.91448613211269</v>
       </c>
     </row>
     <row r="190">
@@ -9789,16 +9777,16 @@
         <v>0.249372343985333</v>
       </c>
       <c r="H190" t="n">
-        <v>4.26019806168221</v>
+        <v>4.69607491828705</v>
       </c>
       <c r="I190" t="n">
-        <v>2.0969319967816</v>
+        <v>2.30902855049191</v>
       </c>
       <c r="J190" t="n">
-        <v>4.69607491828705</v>
+        <v>1.20809638300041</v>
       </c>
       <c r="K190" t="n">
-        <v>1.54147476922932</v>
+        <v>2.78025405047209</v>
       </c>
     </row>
     <row r="191">
@@ -9824,16 +9812,16 @@
         <v>43.6051917976119</v>
       </c>
       <c r="H191" t="n">
-        <v>4.46332288035181</v>
+        <v>4.92046817890783</v>
       </c>
       <c r="I191" t="n">
-        <v>1.65947775854374</v>
+        <v>1.82693267933995</v>
       </c>
       <c r="J191" t="n">
-        <v>4.92046817890783</v>
+        <v>2.66814513383946</v>
       </c>
       <c r="K191" t="n">
-        <v>1.61396702389891</v>
+        <v>3.14625329585976</v>
       </c>
     </row>
     <row r="192">
@@ -9859,16 +9847,16 @@
         <v>68.6223524003334</v>
       </c>
       <c r="H192" t="n">
-        <v>1.59217009640165</v>
+        <v>1.75277474937174</v>
       </c>
       <c r="I192" t="n">
-        <v>3.82179393146809</v>
+        <v>4.2119162148204</v>
       </c>
       <c r="J192" t="n">
-        <v>1.75277474937174</v>
+        <v>0.0153202329799207</v>
       </c>
       <c r="K192" t="n">
-        <v>0.580877529450263</v>
+        <v>2.04722836479028</v>
       </c>
     </row>
     <row r="193">
@@ -9894,16 +9882,16 @@
         <v>12.2974123471105</v>
       </c>
       <c r="H193" t="n">
-        <v>3.22163798081276</v>
+        <v>3.54945585950219</v>
       </c>
       <c r="I193" t="n">
-        <v>0.896539912016325</v>
+        <v>0.986634800322927</v>
       </c>
       <c r="J193" t="n">
-        <v>3.54945585950219</v>
+        <v>0.256165317838541</v>
       </c>
       <c r="K193" t="n">
-        <v>1.16942314018675</v>
+        <v>1.63388286460029</v>
       </c>
     </row>
     <row r="194">
@@ -9929,16 +9917,16 @@
         <v>0.183519108732811</v>
       </c>
       <c r="H194" t="n">
-        <v>-0.211033700556751</v>
+        <v>-0.232112560716935</v>
       </c>
       <c r="I194" t="n">
-        <v>0.67062724113256</v>
+        <v>0.737936826664032</v>
       </c>
       <c r="J194" t="n">
-        <v>-0.232112560716935</v>
+        <v>-0.0670005906130644</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.0774307933753215</v>
+        <v>0.152711068583389</v>
       </c>
     </row>
     <row r="195">
@@ -9964,16 +9952,16 @@
         <v>0.685835435803375</v>
       </c>
       <c r="H195" t="n">
-        <v>-2.34790656420722</v>
+        <v>-2.57964365696001</v>
       </c>
       <c r="I195" t="n">
-        <v>2.76450247203437</v>
+        <v>3.04512166984741</v>
       </c>
       <c r="J195" t="n">
-        <v>-2.57964365696001</v>
+        <v>-1.3419352403871</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.86738299904251</v>
+        <v>-0.28570845693271</v>
       </c>
     </row>
     <row r="196">
@@ -9999,16 +9987,16 @@
         <v>0.278195673442036</v>
       </c>
       <c r="H196" t="n">
-        <v>2.42573918125366</v>
+        <v>2.67152613142767</v>
       </c>
       <c r="I196" t="n">
-        <v>2.68033868561768</v>
+        <v>2.95229249840763</v>
       </c>
       <c r="J196" t="n">
-        <v>2.67152613142767</v>
+        <v>-0.747255691789761</v>
       </c>
       <c r="K196" t="n">
-        <v>0.882694293302722</v>
+        <v>1.69382667329769</v>
       </c>
     </row>
     <row r="197">
@@ -10034,16 +10022,16 @@
         <v>2.16384826703105</v>
       </c>
       <c r="H197" t="n">
-        <v>1.06055951784711</v>
+        <v>1.16723214376684</v>
       </c>
       <c r="I197" t="n">
-        <v>1.37288490850904</v>
+        <v>1.51120580452606</v>
       </c>
       <c r="J197" t="n">
-        <v>1.16723214376684</v>
+        <v>-0.89059067165389</v>
       </c>
       <c r="K197" t="n">
-        <v>0.387573309930667</v>
+        <v>0.641792532194319</v>
       </c>
     </row>
     <row r="198">
@@ -10069,16 +10057,16 @@
         <v>42.5511014452677</v>
       </c>
       <c r="H198" t="n">
-        <v>4.60174720428153</v>
+        <v>5.07341140322271</v>
       </c>
       <c r="I198" t="n">
-        <v>2.40579738679285</v>
+        <v>2.64953773270775</v>
       </c>
       <c r="J198" t="n">
-        <v>5.07341140322271</v>
+        <v>4.21541700203198</v>
       </c>
       <c r="K198" t="n">
-        <v>1.6633174911157</v>
+        <v>3.96630807852099</v>
       </c>
     </row>
     <row r="199">
@@ -10104,16 +10092,16 @@
         <v>5.0757606697705</v>
       </c>
       <c r="H199" t="n">
-        <v>2.8452636617645</v>
+        <v>3.13420506624469</v>
       </c>
       <c r="I199" t="n">
-        <v>0.560335839417636</v>
+        <v>0.616541820780592</v>
       </c>
       <c r="J199" t="n">
-        <v>3.13420506624469</v>
+        <v>1.3569949465019</v>
       </c>
       <c r="K199" t="n">
-        <v>1.03400647719674</v>
+        <v>1.70885874497995</v>
       </c>
     </row>
     <row r="200">
@@ -10139,16 +10127,16 @@
         <v>14.1597236372044</v>
       </c>
       <c r="H200" t="n">
-        <v>2.45170109209649</v>
+        <v>2.70015312586274</v>
       </c>
       <c r="I200" t="n">
-        <v>3.64888487834589</v>
+        <v>4.02101746405743</v>
       </c>
       <c r="J200" t="n">
-        <v>2.70015312586274</v>
+        <v>1.81496877513996</v>
       </c>
       <c r="K200" t="n">
-        <v>0.892069498774672</v>
+        <v>2.87696838847744</v>
       </c>
     </row>
     <row r="201">
@@ -10174,16 +10162,16 @@
         <v>23.6306768974026</v>
       </c>
       <c r="H201" t="n">
-        <v>2.14599753288025</v>
+        <v>2.36311406142096</v>
       </c>
       <c r="I201" t="n">
-        <v>4.34260124848918</v>
+        <v>4.78710096999193</v>
       </c>
       <c r="J201" t="n">
-        <v>2.36311406142096</v>
+        <v>2.31431686796515</v>
       </c>
       <c r="K201" t="n">
-        <v>0.781580097917689</v>
+        <v>3.17730181652316</v>
       </c>
     </row>
     <row r="202">
@@ -10209,16 +10197,16 @@
         <v>10.1502781241754</v>
       </c>
       <c r="H202" t="n">
-        <v>2.52167365536293</v>
+        <v>2.77731223655144</v>
       </c>
       <c r="I202" t="n">
-        <v>-2.80807878869741</v>
+        <v>-3.08451271836888</v>
       </c>
       <c r="J202" t="n">
-        <v>2.77731223655144</v>
+        <v>1.48674613421051</v>
       </c>
       <c r="K202" t="n">
-        <v>0.917330070004807</v>
+        <v>0.322789287662473</v>
       </c>
     </row>
     <row r="203">
@@ -10244,16 +10232,16 @@
         <v>2.23126551432298</v>
       </c>
       <c r="H203" t="n">
-        <v>1.365141510506</v>
+        <v>1.50267647704823</v>
       </c>
       <c r="I203" t="n">
-        <v>0.52797692516795</v>
+        <v>0.580927693245581</v>
       </c>
       <c r="J203" t="n">
-        <v>1.50267647704823</v>
+        <v>-0.0655558635746067</v>
       </c>
       <c r="K203" t="n">
-        <v>0.498403966979999</v>
+        <v>0.696110049577614</v>
       </c>
     </row>
     <row r="204">
@@ -10279,16 +10267,16 @@
         <v>781.470809033407</v>
       </c>
       <c r="H204" t="n">
-        <v>2.82791070317499</v>
+        <v>3.1150633452816</v>
       </c>
       <c r="I204" t="n">
-        <v>1.7358446499939</v>
+        <v>1.91107779148576</v>
       </c>
       <c r="J204" t="n">
-        <v>3.1150633452816</v>
+        <v>0.264327877285409</v>
       </c>
       <c r="K204" t="n">
-        <v>1.0277554491668</v>
+        <v>1.80862911040802</v>
       </c>
     </row>
     <row r="205">
@@ -10314,16 +10302,16 @@
         <v>0.0617003370695171</v>
       </c>
       <c r="H205" t="n">
-        <v>1.01308650825112</v>
+        <v>1.11495794100454</v>
       </c>
       <c r="I205" t="n">
-        <v>5.73391537626502</v>
+        <v>6.32508684079749</v>
       </c>
       <c r="J205" t="n">
-        <v>1.11495794100454</v>
+        <v>-3.49589862825087</v>
       </c>
       <c r="K205" t="n">
-        <v>0.370279882817481</v>
+        <v>1.40259861413494</v>
       </c>
     </row>
     <row r="206">
@@ -10349,16 +10337,16 @@
         <v>3.36783154961004</v>
       </c>
       <c r="H206" t="n">
-        <v>6.80812409354763</v>
+        <v>7.51392483398059</v>
       </c>
       <c r="I206" t="n">
-        <v>-2.24216587003528</v>
+        <v>-2.46359863816167</v>
       </c>
       <c r="J206" t="n">
-        <v>7.51392483398059</v>
+        <v>-3.35330930263903</v>
       </c>
       <c r="K206" t="n">
-        <v>2.44440366587502</v>
+        <v>0.58127798067622</v>
       </c>
     </row>
     <row r="207">
@@ -10384,16 +10372,16 @@
         <v>19.8102596392175</v>
       </c>
       <c r="H207" t="n">
-        <v>2.30796058651876</v>
+        <v>2.5416662550291</v>
       </c>
       <c r="I207" t="n">
-        <v>1.52591234032642</v>
+        <v>1.67977837877338</v>
       </c>
       <c r="J207" t="n">
-        <v>2.5416662550291</v>
+        <v>2.41966280221655</v>
       </c>
       <c r="K207" t="n">
-        <v>0.840143900321877</v>
+        <v>2.20587279686846</v>
       </c>
     </row>
     <row r="208">
@@ -10419,16 +10407,16 @@
         <v>16.1502788206154</v>
       </c>
       <c r="H208" t="n">
-        <v>2.89733380091151</v>
+        <v>3.19164459196379</v>
       </c>
       <c r="I208" t="n">
-        <v>3.94018262329212</v>
+        <v>4.34264057112501</v>
       </c>
       <c r="J208" t="n">
-        <v>3.19164459196379</v>
+        <v>0.636456349574233</v>
       </c>
       <c r="K208" t="n">
-        <v>1.05275961013984</v>
+        <v>2.78417676935261</v>
       </c>
     </row>
     <row r="209">
@@ -10454,16 +10442,16 @@
         <v>43.9849953111728</v>
       </c>
       <c r="H209" t="n">
-        <v>1.71201009566115</v>
+        <v>1.88481493063029</v>
       </c>
       <c r="I209" t="n">
-        <v>3.50122444218393</v>
+        <v>3.85801943768211</v>
       </c>
       <c r="J209" t="n">
-        <v>1.88481493063029</v>
+        <v>1.62497434698392</v>
       </c>
       <c r="K209" t="n">
-        <v>0.624365211125233</v>
+        <v>2.4797121864639</v>
       </c>
     </row>
     <row r="210">
@@ -10489,16 +10477,16 @@
         <v>95.0797650160424</v>
       </c>
       <c r="H210" t="n">
-        <v>2.17337754216973</v>
+        <v>2.39329649348528</v>
       </c>
       <c r="I210" t="n">
-        <v>2.98412258659124</v>
+        <v>3.28738935299047</v>
       </c>
       <c r="J210" t="n">
-        <v>2.39329649348528</v>
+        <v>1.92088275964193</v>
       </c>
       <c r="K210" t="n">
-        <v>0.791484493341654</v>
+        <v>2.5534407863147</v>
       </c>
     </row>
     <row r="211">
@@ -10524,16 +10512,16 @@
         <v>6.89354031024458</v>
       </c>
       <c r="H211" t="n">
-        <v>1.26274322836732</v>
+        <v>1.38989123501418</v>
       </c>
       <c r="I211" t="n">
-        <v>1.1420804259523</v>
+        <v>1.25700341507315</v>
       </c>
       <c r="J211" t="n">
-        <v>1.38989123501418</v>
+        <v>3.96986651079851</v>
       </c>
       <c r="K211" t="n">
-        <v>0.46116705848871</v>
+        <v>2.13744465387586</v>
       </c>
     </row>
     <row r="212">
@@ -10594,16 +10582,16 @@
         <v>0.208647307721658</v>
       </c>
       <c r="H213" t="n">
-        <v>7.01282378722561</v>
+        <v>7.74060415203488</v>
       </c>
       <c r="I213" t="n">
-        <v>2.22530582846949</v>
+        <v>2.45054201090273</v>
       </c>
       <c r="J213" t="n">
-        <v>7.74060415203488</v>
+        <v>-2.25710727511463</v>
       </c>
       <c r="K213" t="n">
-        <v>2.51635008727922</v>
+        <v>2.73393164834825</v>
       </c>
     </row>
     <row r="214">
@@ -10629,16 +10617,16 @@
         <v>0.433793416841927</v>
       </c>
       <c r="H214" t="n">
-        <v>3.4431759625815</v>
+        <v>3.7939477885659</v>
       </c>
       <c r="I214" t="n">
-        <v>1.70166706538841</v>
+        <v>1.87341832562165</v>
       </c>
       <c r="J214" t="n">
-        <v>3.7939477885659</v>
+        <v>-0.537530410904885</v>
       </c>
       <c r="K214" t="n">
-        <v>1.2489846896522</v>
+        <v>1.77233350514048</v>
       </c>
     </row>
     <row r="215">
@@ -10664,16 +10652,16 @@
         <v>0.198156694148578</v>
       </c>
       <c r="H215" t="n">
-        <v>3.53950953228575</v>
+        <v>3.9002789945503</v>
       </c>
       <c r="I215" t="n">
-        <v>3.34196038707995</v>
+        <v>3.68223858263628</v>
       </c>
       <c r="J215" t="n">
-        <v>3.9002789945503</v>
+        <v>-2.98269733484486</v>
       </c>
       <c r="K215" t="n">
-        <v>1.28354756671094</v>
+        <v>1.63982665066782</v>
       </c>
     </row>
     <row r="216">
@@ -10699,16 +10687,16 @@
         <v>3.08938465433545</v>
       </c>
       <c r="H216" t="n">
-        <v>-1.25565769020003</v>
+        <v>-1.38035300105114</v>
       </c>
       <c r="I216" t="n">
-        <v>1.30274904986996</v>
+        <v>1.43395376446442</v>
       </c>
       <c r="J216" t="n">
-        <v>-1.38035300105114</v>
+        <v>1.01169112333306</v>
       </c>
       <c r="K216" t="n">
-        <v>-0.462251135741132</v>
+        <v>0.324576797178056</v>
       </c>
     </row>
     <row r="217">
@@ -10734,16 +10722,16 @@
         <v>49.0598259774023</v>
       </c>
       <c r="H217" t="n">
-        <v>4.16079699952661</v>
+        <v>4.58628186677952</v>
       </c>
       <c r="I217" t="n">
-        <v>7.029498325322</v>
+        <v>7.7590710293199</v>
       </c>
       <c r="J217" t="n">
-        <v>4.58628186677952</v>
+        <v>-2.11007082873341</v>
       </c>
       <c r="K217" t="n">
-        <v>1.5059673962611</v>
+        <v>3.52184213054134</v>
       </c>
     </row>
     <row r="218">
@@ -10769,16 +10757,16 @@
         <v>0.233892056030865</v>
       </c>
       <c r="H218" t="n">
-        <v>26.1535313400086</v>
+        <v>29.1187619446788</v>
       </c>
       <c r="I218" t="n">
-        <v>8.89478750397399</v>
+        <v>9.82666624865842</v>
       </c>
       <c r="J218" t="n">
-        <v>29.1187619446788</v>
+        <v>3.83765951516704</v>
       </c>
       <c r="K218" t="n">
-        <v>8.89211949077031</v>
+        <v>14.1261112224179</v>
       </c>
     </row>
     <row r="219">
@@ -10804,16 +10792,16 @@
         <v>40.9108492146704</v>
       </c>
       <c r="H219" t="n">
-        <v>1.38209787318124</v>
+        <v>1.52135393973698</v>
       </c>
       <c r="I219" t="n">
-        <v>1.35188343624293</v>
+        <v>1.48807290306183</v>
       </c>
       <c r="J219" t="n">
-        <v>1.52135393973698</v>
+        <v>0.274762063886569</v>
       </c>
       <c r="K219" t="n">
-        <v>0.504567811242529</v>
+        <v>1.12139755814229</v>
       </c>
     </row>
     <row r="220">
@@ -10839,16 +10827,16 @@
         <v>195.145691930893</v>
       </c>
       <c r="H220" t="n">
-        <v>2.55573497530255</v>
+        <v>2.81487373775466</v>
       </c>
       <c r="I220" t="n">
-        <v>1.99354788470911</v>
+        <v>2.19507555113956</v>
       </c>
       <c r="J220" t="n">
-        <v>2.81487373775466</v>
+        <v>-3.63420131495727</v>
       </c>
       <c r="K220" t="n">
-        <v>0.929622486973214</v>
+        <v>0.558665071258302</v>
       </c>
     </row>
     <row r="221">
@@ -10874,16 +10862,16 @@
         <v>0.062824884276376</v>
       </c>
       <c r="H221" t="n">
-        <v>0.549515554810487</v>
+        <v>0.604632919249659</v>
       </c>
       <c r="I221" t="n">
-        <v>0.095677077538614</v>
+        <v>0.105249818604736</v>
       </c>
       <c r="J221" t="n">
-        <v>0.604632919249659</v>
+        <v>-0.234167013590203</v>
       </c>
       <c r="K221" t="n">
-        <v>0.201139464324918</v>
+        <v>0.171529484181265</v>
       </c>
     </row>
     <row r="222">
@@ -10909,16 +10897,16 @@
         <v>65.6602657794023</v>
       </c>
       <c r="H222" t="n">
-        <v>2.34242817517143</v>
+        <v>2.57966785168511</v>
       </c>
       <c r="I222" t="n">
-        <v>2.37834240846566</v>
+        <v>2.61926578095755</v>
       </c>
       <c r="J222" t="n">
-        <v>2.57966785168511</v>
+        <v>2.9194197407636</v>
       </c>
       <c r="K222" t="n">
-        <v>0.852599367861684</v>
+        <v>2.69865464390961</v>
       </c>
     </row>
     <row r="223">
@@ -10944,16 +10932,16 @@
         <v>964.755226233031</v>
       </c>
       <c r="H223" t="n">
-        <v>4.29736309976554</v>
+        <v>4.73712810377762</v>
       </c>
       <c r="I223" t="n">
-        <v>3.91844779355057</v>
+        <v>4.31863993601931</v>
       </c>
       <c r="J223" t="n">
-        <v>4.73712810377762</v>
+        <v>2.09070204280322</v>
       </c>
       <c r="K223" t="n">
-        <v>1.55474510516707</v>
+        <v>3.76521147006992</v>
       </c>
     </row>
     <row r="224">
@@ -10979,16 +10967,16 @@
         <v>394.564104653894</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.340347833084165</v>
+        <v>-0.374318841080246</v>
       </c>
       <c r="I224" t="n">
-        <v>2.88926813533483</v>
+        <v>3.18274701801331</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.374318841080246</v>
+        <v>6.58544743918461</v>
       </c>
       <c r="K224" t="n">
-        <v>-0.124928954470183</v>
+        <v>2.97371546748018</v>
       </c>
     </row>
     <row r="225">
@@ -11014,16 +11002,16 @@
         <v>85.2517716595016</v>
       </c>
       <c r="H225" t="n">
-        <v>4.64707754021356</v>
+        <v>5.12350069896705</v>
       </c>
       <c r="I225" t="n">
-        <v>1.97525677252777</v>
+        <v>2.17491575324404</v>
       </c>
       <c r="J225" t="n">
-        <v>5.12350069896705</v>
+        <v>0.014002216505804</v>
       </c>
       <c r="K225" t="n">
-        <v>1.67946948412674</v>
+        <v>2.49996902616567</v>
       </c>
     </row>
     <row r="226">
@@ -11049,16 +11037,16 @@
         <v>34.6246860241394</v>
       </c>
       <c r="H226" t="n">
-        <v>3.91343070779091</v>
+        <v>4.31309990206348</v>
       </c>
       <c r="I226" t="n">
-        <v>2.83027265538125</v>
+        <v>3.11766875117152</v>
       </c>
       <c r="J226" t="n">
-        <v>4.31309990206348</v>
+        <v>3.33230812166638</v>
       </c>
       <c r="K226" t="n">
-        <v>1.41751163299983</v>
+        <v>3.59516041307477</v>
       </c>
     </row>
     <row r="227">
@@ -11084,16 +11072,16 @@
         <v>138.256044345108</v>
       </c>
       <c r="H227" t="n">
-        <v>4.94738094166614</v>
+        <v>5.45538591207602</v>
       </c>
       <c r="I227" t="n">
-        <v>3.04566489303713</v>
+        <v>3.35528727059879</v>
       </c>
       <c r="J227" t="n">
-        <v>5.45538591207602</v>
+        <v>1.84856585593627</v>
       </c>
       <c r="K227" t="n">
-        <v>1.78636109662247</v>
+        <v>3.6014476880285</v>
       </c>
     </row>
     <row r="228">
@@ -11119,16 +11107,16 @@
         <v>33.5257987061478</v>
       </c>
       <c r="H228" t="n">
-        <v>7.81558076138922</v>
+        <v>8.62997492283284</v>
       </c>
       <c r="I228" t="n">
-        <v>2.69511146564525</v>
+        <v>2.96858571269838</v>
       </c>
       <c r="J228" t="n">
-        <v>8.62997492283284</v>
+        <v>3.62499472519688</v>
       </c>
       <c r="K228" t="n">
-        <v>2.79765942516277</v>
+        <v>5.0937097960408</v>
       </c>
     </row>
     <row r="229">
@@ -11154,16 +11142,16 @@
         <v>126.610798474324</v>
       </c>
       <c r="H229" t="n">
-        <v>4.11128536301519</v>
+        <v>4.53159789223294</v>
       </c>
       <c r="I229" t="n">
-        <v>4.4297126346946</v>
+        <v>4.88333571494428</v>
       </c>
       <c r="J229" t="n">
-        <v>4.53159789223294</v>
+        <v>4.68998432985439</v>
       </c>
       <c r="K229" t="n">
-        <v>1.48827317817644</v>
+        <v>4.70193904134768</v>
       </c>
     </row>
     <row r="230">
@@ -11189,16 +11177,16 @@
         <v>190.29787042223</v>
       </c>
       <c r="H230" t="n">
-        <v>8.254682312351</v>
+        <v>9.11673407933267</v>
       </c>
       <c r="I230" t="n">
-        <v>6.21828923309933</v>
+        <v>6.86099965338745</v>
       </c>
       <c r="J230" t="n">
-        <v>9.11673407933267</v>
+        <v>3.90388180469108</v>
       </c>
       <c r="K230" t="n">
-        <v>2.95097238714823</v>
+        <v>6.70020084452705</v>
       </c>
     </row>
     <row r="231">
@@ -11224,16 +11212,16 @@
         <v>736.5705780852</v>
       </c>
       <c r="H231" t="n">
-        <v>3.60843934863011</v>
+        <v>3.97636851902743</v>
       </c>
       <c r="I231" t="n">
-        <v>5.04526540750629</v>
+        <v>5.56358506681545</v>
       </c>
       <c r="J231" t="n">
-        <v>3.97636851902743</v>
+        <v>2.38257741956076</v>
       </c>
       <c r="K231" t="n">
-        <v>1.30826593623237</v>
+        <v>4.02110387077168</v>
       </c>
     </row>
     <row r="232">
@@ -11259,16 +11247,16 @@
         <v>40.7383163249566</v>
       </c>
       <c r="H232" t="n">
-        <v>2.78556835027102</v>
+        <v>3.06835765114151</v>
       </c>
       <c r="I232" t="n">
-        <v>0.552567157194472</v>
+        <v>0.607991527016294</v>
       </c>
       <c r="J232" t="n">
-        <v>3.06835765114151</v>
+        <v>-8.63779003174649</v>
       </c>
       <c r="K232" t="n">
-        <v>1.01249972773174</v>
+        <v>-1.54044870616171</v>
       </c>
     </row>
     <row r="233">
@@ -11294,16 +11282,16 @@
         <v>274.565257050155</v>
       </c>
       <c r="H233" t="n">
-        <v>3.60637446089125</v>
+        <v>3.97408907878611</v>
       </c>
       <c r="I233" t="n">
-        <v>5.10242440947064</v>
+        <v>5.62677192828493</v>
       </c>
       <c r="J233" t="n">
-        <v>3.97408907878611</v>
+        <v>2.73948760108245</v>
       </c>
       <c r="K233" t="n">
-        <v>1.3075256147248</v>
+        <v>4.15420858494657</v>
       </c>
     </row>
     <row r="234">
@@ -11329,16 +11317,16 @@
         <v>27.2865842238773</v>
       </c>
       <c r="H234" t="n">
-        <v>5.42386234095489</v>
+        <v>5.98217193207109</v>
       </c>
       <c r="I234" t="n">
-        <v>4.77492293333672</v>
+        <v>5.26477949866659</v>
       </c>
       <c r="J234" t="n">
-        <v>5.98217193207109</v>
+        <v>-7.34964695130437</v>
       </c>
       <c r="K234" t="n">
-        <v>1.95556565547497</v>
+        <v>1.41354300523624</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-16 13:24:16</t>
+    <t xml:space="preserve">2021-08-16 13:35:49</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">important note</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth rates include the first and last year. For example, the estimate for 1990-2000 has 11 years of data. Also, some years (e.g. 2000) have a leap year adjustment applied to them, so will show slightly different totals.</t>
+    <t xml:space="preserve">Growth rates assume emissions are at the end of each year - 31.12. For example, the estimate for 1990-2000 has 10 years of data.</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t xml:space="preserve">Author</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-08-24 15:19:11</t>
+    <t xml:space="preserve">2021-08-25 11:29:46</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -119,19 +119,22 @@
     <t xml:space="preserve">Gases</t>
   </si>
   <si>
+    <t xml:space="preserve">CO2_FFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_LULUCF</t>
+  </si>
+  <si>
     <t xml:space="preserve">CH4</t>
   </si>
   <si>
-    <t xml:space="preserve">CO2</t>
+    <t xml:space="preserve">N2O</t>
   </si>
   <si>
     <t xml:space="preserve">Fgas</t>
   </si>
   <si>
     <t xml:space="preserve">GHG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O</t>
   </si>
   <si>
     <t xml:space="preserve">Regions</t>
@@ -1454,28 +1457,28 @@
         <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>8.17558268994896</v>
+        <v>22.7048976097961</v>
       </c>
       <c r="E2" t="n">
-        <v>8.43768841872268</v>
+        <v>25.8123841524056</v>
       </c>
       <c r="F2" t="n">
-        <v>9.66424928526536</v>
+        <v>34.1369545479154</v>
       </c>
       <c r="G2" t="n">
-        <v>10.565894553494</v>
+        <v>37.9300547752771</v>
       </c>
       <c r="H2" t="n">
-        <v>0.316062384764004</v>
+        <v>1.29099964213424</v>
       </c>
       <c r="I2" t="n">
-        <v>1.36650294724756</v>
+        <v>2.83469525693971</v>
       </c>
       <c r="J2" t="n">
-        <v>0.996015124879857</v>
+        <v>1.1775827864235</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888333947826836</v>
+        <v>1.78527699058815</v>
       </c>
     </row>
     <row r="3">
@@ -1487,28 +1490,28 @@
         <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7048976097961</v>
+        <v>4.979180807728</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8123841524056</v>
+        <v>5.05170398532267</v>
       </c>
       <c r="F3" t="n">
-        <v>34.1369545479154</v>
+        <v>5.33731686335467</v>
       </c>
       <c r="G3" t="n">
-        <v>37.9300547752771</v>
+        <v>6.6050388476</v>
       </c>
       <c r="H3" t="n">
-        <v>1.29099964213424</v>
+        <v>0.144706880948475</v>
       </c>
       <c r="I3" t="n">
-        <v>2.83469525693971</v>
+        <v>0.551489710927444</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1775827864235</v>
+        <v>2.3961431572314</v>
       </c>
       <c r="K3" t="n">
-        <v>1.78527699058815</v>
+        <v>0.979132921884363</v>
       </c>
     </row>
     <row r="4">
@@ -1520,28 +1523,28 @@
         <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0.286439531994979</v>
+        <v>8.17558268994896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.524520427692494</v>
+        <v>8.43768841872268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.657571963830359</v>
+        <v>9.66424928526536</v>
       </c>
       <c r="G4" t="n">
-        <v>0.692236336011965</v>
+        <v>10.565894553494</v>
       </c>
       <c r="H4" t="n">
-        <v>6.23630206658874</v>
+        <v>0.316062384764004</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28644578995516</v>
+        <v>1.36650294724756</v>
       </c>
       <c r="J4" t="n">
-        <v>0.572445739829575</v>
+        <v>0.996015124879857</v>
       </c>
       <c r="K4" t="n">
-        <v>3.08952351408778</v>
+        <v>0.888333947826836</v>
       </c>
     </row>
     <row r="5">
@@ -1553,28 +1556,28 @@
         <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0651873586009</v>
+        <v>1.89826752686084</v>
       </c>
       <c r="E5" t="n">
-        <v>36.8106441151285</v>
+        <v>2.03605111630764</v>
       </c>
       <c r="F5" t="n">
-        <v>46.7296637448991</v>
+        <v>2.27088794788791</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7208634023013</v>
+        <v>2.53267773751827</v>
       </c>
       <c r="H5" t="n">
-        <v>1.07883852479069</v>
+        <v>0.703166309668291</v>
       </c>
       <c r="I5" t="n">
-        <v>2.41461197824893</v>
+        <v>1.09756671889707</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13395987014779</v>
+        <v>1.21966932213784</v>
       </c>
       <c r="K5" t="n">
-        <v>1.55465145002682</v>
+        <v>0.999219517967798</v>
       </c>
     </row>
     <row r="6">
@@ -1586,28 +1589,61 @@
         <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>1.89826752686084</v>
+        <v>0.286439531994979</v>
       </c>
       <c r="E6" t="n">
-        <v>2.03605111630764</v>
+        <v>0.524520427692494</v>
       </c>
       <c r="F6" t="n">
-        <v>2.27088794788791</v>
+        <v>0.657571963830359</v>
       </c>
       <c r="G6" t="n">
-        <v>2.53267773751827</v>
+        <v>0.692236336011965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.703166309668291</v>
+        <v>6.23630206658874</v>
       </c>
       <c r="I6" t="n">
-        <v>1.09756671889707</v>
+        <v>2.28644578995516</v>
       </c>
       <c r="J6" t="n">
-        <v>1.21966932213784</v>
+        <v>0.572445739829575</v>
       </c>
       <c r="K6" t="n">
-        <v>0.999219517967798</v>
+        <v>3.08952351408778</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.0443681663289</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41.8623481004511</v>
+      </c>
+      <c r="F7" t="n">
+        <v>52.0669806082537</v>
+      </c>
+      <c r="G7" t="n">
+        <v>58.3259022499013</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.960924995466983</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.20540908767668</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.26926890757961</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.48433332923716</v>
       </c>
     </row>
   </sheetData>
@@ -1661,13 +1697,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>2.77742968905457</v>
@@ -1696,13 +1732,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
         <v>9.77017545921387</v>
@@ -1731,13 +1767,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
         <v>15.7002495055422</v>
@@ -1766,13 +1802,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
         <v>4.31504112845735</v>
@@ -1801,13 +1837,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>0.261952849520111</v>
@@ -1836,13 +1872,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
         <v>0.395632549408763</v>
@@ -1871,13 +1907,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>3.7113472028784</v>
@@ -1906,13 +1942,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
         <v>1.11253978225356</v>
@@ -1990,11 +2026,11 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>10.2006329267325</v>
@@ -2023,11 +2059,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>3.00366446455348</v>
@@ -2056,11 +2092,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
         <v>11.961001787345</v>
@@ -2089,11 +2125,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>7.8535323725065</v>
@@ -2122,11 +2158,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>5.02553661519145</v>
@@ -2204,11 +2240,11 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>10.2006329267325</v>
@@ -2237,11 +2273,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>6.37968410340929</v>
@@ -2264,11 +2300,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
         <v>11.961001787345</v>
@@ -2297,11 +2333,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>11.2702223900935</v>
@@ -2324,11 +2360,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>5.11414289499238</v>
@@ -2400,13 +2436,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
         <v>41.7228438687474</v>
@@ -2435,13 +2471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>2459.33548371225</v>
@@ -2470,13 +2506,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
         <v>1057.59672099974</v>
@@ -2505,13 +2541,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
         <v>383.572847364061</v>
@@ -2540,13 +2576,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
         <v>1055.34627839291</v>
@@ -2575,13 +2611,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
         <v>223.87794466674</v>
@@ -2610,13 +2646,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
         <v>0.0096074973</v>
@@ -2645,13 +2681,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
         <v>782.237072260382</v>
@@ -2680,13 +2716,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
         <v>2221.4177847958</v>
@@ -2715,13 +2751,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
         <v>95.9186328307005</v>
@@ -2750,13 +2786,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
         <v>910.445857038311</v>
@@ -2785,13 +2821,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
         <v>7655.34107363202</v>
@@ -2820,13 +2856,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="n">
         <v>1766.95843965939</v>
@@ -2855,13 +2891,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
         <v>1003.19629466337</v>
@@ -2890,13 +2926,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" t="n">
         <v>529.141489521187</v>
@@ -2925,13 +2961,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
         <v>514.67258857</v>
@@ -2960,13 +2996,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" t="n">
         <v>1658.7650952988</v>
@@ -2995,13 +3031,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="n">
         <v>1550.63095474604</v>
@@ -3030,13 +3066,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" t="n">
         <v>2562.6738631167</v>
@@ -3065,13 +3101,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
         <v>1566.78987077497</v>
@@ -3100,13 +3136,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" t="n">
         <v>286.86437717727</v>
@@ -3135,13 +3171,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" t="n">
         <v>101.31055182816</v>
@@ -3170,13 +3206,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
         <v>260.335372841111</v>
@@ -3205,13 +3241,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" t="n">
         <v>374.833673104063</v>
@@ -3240,13 +3276,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" t="n">
         <v>481.055667363867</v>
@@ -3275,13 +3311,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="n">
         <v>137.791616844951</v>
@@ -3310,13 +3346,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" t="n">
         <v>3383.34535603202</v>
@@ -3394,13 +3430,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>145.787605584505</v>
@@ -3429,13 +3465,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" t="n">
         <v>33.6524949546942</v>
@@ -3464,13 +3500,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="n">
         <v>4.01139690278578</v>
@@ -3499,13 +3535,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
         <v>8.92938037062645</v>
@@ -3534,13 +3570,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
         <v>10.6061764000469</v>
@@ -3569,13 +3605,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
         <v>2.90561338084759</v>
@@ -3604,13 +3640,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
         <v>0.225977910859409</v>
@@ -3639,13 +3675,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
         <v>30.5958289667847</v>
@@ -3674,13 +3710,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" t="n">
         <v>4.90771059278994</v>
@@ -3709,13 +3745,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
         <v>10.3492282256256</v>
@@ -3744,13 +3780,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D12" t="n">
         <v>0.328025198782607</v>
@@ -3779,13 +3815,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
         <v>24.7141146750246</v>
@@ -3814,13 +3850,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
         <v>11.1867514051475</v>
@@ -3849,13 +3885,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
         <v>10.6146213959633</v>
@@ -3884,13 +3920,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" t="n">
         <v>2.04795362870598</v>
@@ -3919,13 +3955,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
         <v>147.350491536952</v>
@@ -3954,13 +3990,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
         <v>0.223413949001943</v>
@@ -3989,13 +4025,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="n">
         <v>4.66155427123775</v>
@@ -4024,13 +4060,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
         <v>65.2420895679627</v>
@@ -4059,13 +4095,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4094,13 +4130,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" t="n">
         <v>20.2282038741512</v>
@@ -4129,13 +4165,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
         <v>0.935378751805203</v>
@@ -4164,13 +4200,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" t="n">
         <v>10.7805594997052</v>
@@ -4199,13 +4235,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="n">
         <v>7.32319810660677</v>
@@ -4234,13 +4270,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" t="n">
         <v>1.57434149852513</v>
@@ -4269,13 +4305,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" t="n">
         <v>41.2708457104508</v>
@@ -4304,13 +4340,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="n">
         <v>2.04614989282007</v>
@@ -4339,13 +4375,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" t="n">
         <v>1.64215800567868</v>
@@ -4374,13 +4410,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D30" t="n">
         <v>90.6550471876566</v>
@@ -4409,13 +4445,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
         <v>24.5301915152394</v>
@@ -4444,13 +4480,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
         <v>5.10152920281963</v>
@@ -4479,13 +4515,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" t="n">
         <v>12.7953243482818</v>
@@ -4514,13 +4550,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="n">
         <v>6.45228318668787</v>
@@ -4549,13 +4585,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" t="n">
         <v>1.92757364977348</v>
@@ -4584,13 +4620,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="n">
         <v>0.011897119809</v>
@@ -4619,13 +4655,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="n">
         <v>44.0745999658707</v>
@@ -4654,13 +4690,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="n">
         <v>8.216692331718</v>
@@ -4689,13 +4725,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" t="n">
         <v>6.95093414859749</v>
@@ -4724,13 +4760,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" t="n">
         <v>12.1711584212029</v>
@@ -4759,13 +4795,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" t="n">
         <v>283.970625411488</v>
@@ -4794,13 +4830,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" t="n">
         <v>1.22314536642967</v>
@@ -4829,13 +4865,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" t="n">
         <v>3.68729835650379</v>
@@ -4864,13 +4900,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" t="n">
         <v>0.0136672062023045</v>
@@ -4899,13 +4935,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" t="n">
         <v>0.0859095622512935</v>
@@ -4934,13 +4970,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" t="n">
         <v>9.95699507361876</v>
@@ -4969,13 +5005,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D47" t="n">
         <v>0.367867231637188</v>
@@ -5004,13 +5040,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" t="n">
         <v>3.86244861227275</v>
@@ -5039,13 +5075,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" t="n">
         <v>24.6168697467781</v>
@@ -5074,13 +5110,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D50" t="n">
         <v>402.637340408586</v>
@@ -5109,13 +5145,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" t="n">
         <v>58.6735601970659</v>
@@ -5144,13 +5180,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" t="n">
         <v>2.86090414697794</v>
@@ -5179,13 +5215,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" t="n">
         <v>31.0738026901291</v>
@@ -5214,13 +5250,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D54" t="n">
         <v>3.37499776172939</v>
@@ -5249,13 +5285,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D55" t="n">
         <v>23.6829237302918</v>
@@ -5284,13 +5320,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D56" t="n">
         <v>16.0641004010505</v>
@@ -5319,13 +5355,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" t="n">
         <v>0.411582141033177</v>
@@ -5354,13 +5390,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" t="n">
         <v>15.406002555413</v>
@@ -5389,13 +5425,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" t="n">
         <v>34.4976821380344</v>
@@ -5424,13 +5460,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" t="n">
         <v>13.3644098337721</v>
@@ -5459,13 +5495,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D61" t="n">
         <v>0.0134917751416702</v>
@@ -5494,13 +5530,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D62" t="n">
         <v>135.572522940203</v>
@@ -5529,13 +5565,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" t="n">
         <v>1.11843072462214</v>
@@ -5564,13 +5600,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D64" t="n">
         <v>8.18368814236418</v>
@@ -5599,13 +5635,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D65" t="n">
         <v>19.3682360945501</v>
@@ -5634,13 +5670,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" t="n">
         <v>3893.72266167551</v>
@@ -5669,13 +5705,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="n">
         <v>0.0494723033925397</v>
@@ -5704,13 +5740,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="n">
         <v>2.14118044152554</v>
@@ -5739,13 +5775,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" t="n">
         <v>0.923785915209981</v>
@@ -5774,13 +5810,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" t="n">
         <v>0.047843045084096</v>
@@ -5809,13 +5845,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" t="n">
         <v>38.3285648197683</v>
@@ -5844,13 +5880,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" t="n">
         <v>1405.48350224253</v>
@@ -5879,13 +5915,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" t="n">
         <v>422.788557645902</v>
@@ -5914,13 +5950,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" t="n">
         <v>0.0337991593777183</v>
@@ -5949,13 +5985,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" t="n">
         <v>167.578079313218</v>
@@ -5984,13 +6020,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D76" t="n">
         <v>323.817568756721</v>
@@ -6019,13 +6055,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D77" t="n">
         <v>8.04292570247595</v>
@@ -6054,13 +6090,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" t="n">
         <v>1.01251589868371</v>
@@ -6089,13 +6125,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D79" t="n">
         <v>94.9797221024638</v>
@@ -6124,13 +6160,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D80" t="n">
         <v>0.144526604009972</v>
@@ -6159,13 +6195,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" t="n">
         <v>0.001874792357244</v>
@@ -6194,13 +6230,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" t="n">
         <v>0.035467371513456</v>
@@ -6229,13 +6265,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" t="n">
         <v>25.765699911942</v>
@@ -6264,13 +6300,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D84" t="n">
         <v>70.2268130652394</v>
@@ -6299,13 +6335,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D85" t="n">
         <v>0.00221620997442</v>
@@ -6334,13 +6370,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D86" t="n">
         <v>30.6382367538894</v>
@@ -6369,13 +6405,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D87" t="n">
         <v>1.90361042516075</v>
@@ -6404,13 +6440,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D88" t="n">
         <v>0.0011585953471083</v>
@@ -6439,13 +6475,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D89" t="n">
         <v>0.001751416269696</v>
@@ -6474,13 +6510,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D90" t="n">
         <v>209.338281862503</v>
@@ -6509,13 +6545,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D91" t="n">
         <v>2.31930308198094</v>
@@ -6544,13 +6580,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D92" t="n">
         <v>3.44859711219519</v>
@@ -6579,13 +6615,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D93" t="n">
         <v>107.17818572429</v>
@@ -6614,13 +6650,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -6649,13 +6685,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D95" t="n">
         <v>0.289176467632854</v>
@@ -6684,13 +6720,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D96" t="n">
         <v>33.7926800263988</v>
@@ -6719,13 +6755,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D97" t="n">
         <v>0.265748924696949</v>
@@ -6754,13 +6790,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D98" t="n">
         <v>22.181502783963</v>
@@ -6789,13 +6825,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D99" t="n">
         <v>142.221103648932</v>
@@ -6824,13 +6860,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D100" t="n">
         <v>213.384899274346</v>
@@ -6859,13 +6895,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D101" t="n">
         <v>0.721001593394187</v>
@@ -6894,13 +6930,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D102" t="n">
         <v>0.00041901579495</v>
@@ -6929,13 +6965,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D103" t="n">
         <v>0.181671041193295</v>
@@ -6964,13 +7000,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D104" t="n">
         <v>0.0043963900454</v>
@@ -6999,13 +7035,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7034,13 +7070,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D106" t="n">
         <v>0.479426782579361</v>
@@ -7069,13 +7105,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D107" t="n">
         <v>108.279358141029</v>
@@ -7104,13 +7140,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D108" t="n">
         <v>0.0093041766794118</v>
@@ -7139,13 +7175,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D109" t="n">
         <v>11.3656783356161</v>
@@ -7174,13 +7210,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D110" t="n">
         <v>456.893858973098</v>
@@ -7209,13 +7245,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D111" t="n">
         <v>82.3671736033895</v>
@@ -7244,13 +7280,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D112" t="n">
         <v>145.038624430234</v>
@@ -7279,13 +7315,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D113" t="n">
         <v>0.763502775218347</v>
@@ -7314,13 +7350,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D114" t="n">
         <v>32.1104653496557</v>
@@ -7349,13 +7385,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D115" t="n">
         <v>103.662305139385</v>
@@ -7384,13 +7420,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D116" t="n">
         <v>593.414349454796</v>
@@ -7419,13 +7455,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -7454,13 +7490,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7489,13 +7525,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D119" t="n">
         <v>34.5951707183415</v>
@@ -7524,13 +7560,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D120" t="n">
         <v>5.31443888680323</v>
@@ -7559,13 +7595,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D121" t="n">
         <v>195.697074615084</v>
@@ -7594,13 +7630,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D122" t="n">
         <v>70.5344104040192</v>
@@ -7629,13 +7665,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D123" t="n">
         <v>41.1467551378005</v>
@@ -7664,13 +7700,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D124" t="n">
         <v>0.045263403158824</v>
@@ -7699,13 +7735,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D125" t="n">
         <v>84.143562574772</v>
@@ -7734,13 +7770,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D126" t="n">
         <v>544.114790125585</v>
@@ -7769,13 +7805,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D127" t="n">
         <v>1238.62790947637</v>
@@ -7804,13 +7840,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D128" t="n">
         <v>0.1586652919957</v>
@@ -7839,13 +7875,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D129" t="n">
         <v>102.350654013311</v>
@@ -7874,13 +7910,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D130" t="n">
         <v>0.0673323343077</v>
@@ -7909,13 +7945,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -7944,13 +7980,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D132" t="n">
         <v>96.806584607235</v>
@@ -7979,13 +8015,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D133" t="n">
         <v>4.54872834368089</v>
@@ -8014,13 +8050,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D134" t="n">
         <v>58.3610853302695</v>
@@ -8049,13 +8085,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D135" t="n">
         <v>522.007433086054</v>
@@ -8084,13 +8120,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D136" t="n">
         <v>1314.66607689382</v>
@@ -8119,13 +8155,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
         <v>28.1619143636335</v>
@@ -8154,13 +8190,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D138" t="n">
         <v>47.4721383382888</v>
@@ -8189,13 +8225,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D139" t="n">
         <v>12.7216057523905</v>
@@ -8224,13 +8260,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D140" t="n">
         <v>2.51613175666306</v>
@@ -8259,13 +8295,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D141" t="n">
         <v>223.579026337231</v>
@@ -8294,13 +8330,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D142" t="n">
         <v>70.2084655434692</v>
@@ -8329,13 +8365,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -8364,13 +8400,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D144" t="n">
         <v>64.1640173163853</v>
@@ -8399,13 +8435,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D145" t="n">
         <v>523.422077654562</v>
@@ -8434,13 +8470,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D146" t="n">
         <v>58.6786358369147</v>
@@ -8469,13 +8505,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D147" t="n">
         <v>247.016830086757</v>
@@ -8504,13 +8540,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D148" t="n">
         <v>0.241938147768287</v>
@@ -8539,13 +8575,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D149" t="n">
         <v>74.8034901201926</v>
@@ -8574,13 +8610,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D150" t="n">
         <v>23.2942998877636</v>
@@ -8609,13 +8645,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D151" t="n">
         <v>299.732489280343</v>
@@ -8644,13 +8680,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D152" t="n">
         <v>79.9287674591305</v>
@@ -8679,13 +8715,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D153" t="n">
         <v>54.9120119662568</v>
@@ -8714,13 +8750,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D154" t="n">
         <v>222.768914788005</v>
@@ -8749,13 +8785,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D155" t="n">
         <v>960.448486930477</v>
@@ -8784,13 +8820,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D156" t="n">
         <v>782.186800286448</v>
@@ -8819,13 +8855,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D157" t="n">
         <v>6232.9808200389</v>
@@ -8854,13 +8890,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D158" t="n">
         <v>24.286637460377</v>
@@ -8889,13 +8925,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D159" t="n">
         <v>69.7272477203554</v>
@@ -8924,13 +8960,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D160" t="n">
         <v>140.820143906815</v>
@@ -8959,13 +8995,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D161" t="n">
         <v>42.2379109379696</v>
@@ -8994,13 +9030,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D162" t="n">
         <v>354.904142129699</v>
@@ -9029,13 +9065,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D163" t="n">
         <v>34.0227429675899</v>
@@ -9064,13 +9100,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D164" t="n">
         <v>14.2934258524021</v>
@@ -9099,13 +9135,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D165" t="n">
         <v>37.7535400976309</v>
@@ -9134,13 +9170,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D166" t="n">
         <v>3078.78334813895</v>
@@ -9169,13 +9205,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D167" t="n">
         <v>85.804853152071</v>
@@ -9204,13 +9240,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D168" t="n">
         <v>22.4731926477642</v>
@@ -9239,13 +9275,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D169" t="n">
         <v>83.9080207576699</v>
@@ -9274,13 +9310,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D170" t="n">
         <v>170.376931008046</v>
@@ -9309,13 +9345,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D171" t="n">
         <v>261.952849520111</v>
@@ -9344,13 +9380,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C172" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D172" t="n">
         <v>395.632549408763</v>
@@ -9379,13 +9415,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C173" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D173" t="n">
         <v>0.00855499455582336</v>
@@ -9414,13 +9450,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D174" t="n">
         <v>0.492158535159409</v>
@@ -9449,13 +9485,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D175" t="n">
         <v>271.702407805923</v>
@@ -9484,13 +9520,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C176" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D176" t="n">
         <v>0.553762368145376</v>
@@ -9519,13 +9555,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C177" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D177" t="n">
         <v>3.01366377883297</v>
@@ -9554,13 +9590,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D178" t="n">
         <v>1.58006607444628</v>
@@ -9589,13 +9625,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D179" t="n">
         <v>0.632003571673807</v>
@@ -9624,13 +9660,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D180" t="n">
         <v>30.8906101602765</v>
@@ -9659,13 +9695,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -9694,13 +9730,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D182" t="n">
         <v>696.13927129911</v>
@@ -9729,13 +9765,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D183" t="n">
         <v>0.0572353637487174</v>
@@ -9764,13 +9800,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D184" t="n">
         <v>0.298707899186892</v>
@@ -9799,13 +9835,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D185" t="n">
         <v>58.4859784876316</v>
@@ -9834,13 +9870,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D186" t="n">
         <v>135.171855877777</v>
@@ -9869,13 +9905,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C187" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D187" t="n">
         <v>9.78164294572855</v>
@@ -9904,13 +9940,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C188" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D188" t="n">
         <v>62.7161480180483</v>
@@ -9939,13 +9975,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D189" t="n">
         <v>0.00211452416</v>
@@ -9974,13 +10010,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D190" t="n">
         <v>0.112197815704147</v>
@@ -10009,13 +10045,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D191" t="n">
         <v>17.6993847181369</v>
@@ -10044,13 +10080,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C192" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D192" t="n">
         <v>38.0321795388891</v>
@@ -10079,13 +10115,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C193" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D193" t="n">
         <v>7.65744574639809</v>
@@ -10114,13 +10150,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C194" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D194" t="n">
         <v>0.174731343464394</v>
@@ -10149,13 +10185,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C195" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D195" t="n">
         <v>0.744591978992194</v>
@@ -10184,13 +10220,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D196" t="n">
         <v>0.170619484575769</v>
@@ -10219,13 +10255,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D197" t="n">
         <v>1.79571809667106</v>
@@ -10254,13 +10290,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D198" t="n">
         <v>13.7155115316782</v>
@@ -10289,13 +10325,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D199" t="n">
         <v>3.09686699582799</v>
@@ -10324,13 +10360,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D200" t="n">
         <v>6.18942904997111</v>
@@ -10359,13 +10395,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C201" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D201" t="n">
         <v>9.49966589024035</v>
@@ -10394,13 +10430,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D202" t="n">
         <v>9.23501872847885</v>
@@ -10429,13 +10465,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D203" t="n">
         <v>1.82338253246596</v>
@@ -10464,13 +10500,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C204" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D204" t="n">
         <v>463.861884713451</v>
@@ -10499,13 +10535,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C205" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D205" t="n">
         <v>0.0410579382303959</v>
@@ -10534,13 +10570,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C206" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D206" t="n">
         <v>2.84632344992305</v>
@@ -10569,13 +10605,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D207" t="n">
         <v>10.4772609490026</v>
@@ -10604,13 +10640,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D208" t="n">
         <v>7.25547524388075</v>
@@ -10639,13 +10675,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D209" t="n">
         <v>21.5070584666695</v>
@@ -10674,13 +10710,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D210" t="n">
         <v>45.6319568374989</v>
@@ -10709,13 +10745,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D211" t="n">
         <v>3.71488770580898</v>
@@ -10744,13 +10780,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -10779,13 +10815,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D213" t="n">
         <v>0.0951545653707275</v>
@@ -10814,13 +10850,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C214" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D214" t="n">
         <v>0.260067878955665</v>
@@ -10849,13 +10885,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D215" t="n">
         <v>0.123302380217443</v>
@@ -10884,13 +10920,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C216" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D216" t="n">
         <v>2.80576191009022</v>
@@ -10919,13 +10955,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D217" t="n">
         <v>17.9659179544708</v>
@@ -10954,13 +10990,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C218" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D218" t="n">
         <v>0.0050309093813652</v>
@@ -10989,13 +11025,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D219" t="n">
         <v>29.4582422545772</v>
@@ -11024,13 +11060,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D220" t="n">
         <v>165.797395991182</v>
@@ -11059,13 +11095,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D221" t="n">
         <v>0.059388605787885</v>
@@ -11094,13 +11130,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D222" t="n">
         <v>30.330229117403</v>
@@ -11129,13 +11165,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B223" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D223" t="n">
         <v>330.057950878978</v>
@@ -11164,13 +11200,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C224" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D224" t="n">
         <v>168.599362626556</v>
@@ -11199,13 +11235,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D225" t="n">
         <v>41.6256809492925</v>
@@ -11234,13 +11270,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D226" t="n">
         <v>12.4192466361578</v>
@@ -11269,13 +11305,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D227" t="n">
         <v>49.5275672359959</v>
@@ -11304,13 +11340,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D228" t="n">
         <v>7.92574001165844</v>
@@ -11339,13 +11375,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C229" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D229" t="n">
         <v>33.3960629193868</v>
@@ -11374,13 +11410,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D230" t="n">
         <v>29.0120608378559</v>
@@ -11409,13 +11445,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C231" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D231" t="n">
         <v>234.70730505452</v>
@@ -11444,13 +11480,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C232" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D232" t="n">
         <v>63.8580112643012</v>
@@ -11479,13 +11515,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D233" t="n">
         <v>84.3238204887197</v>
@@ -11514,13 +11550,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D234" t="n">
         <v>18.1233489687313</v>

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-24 15:06:01</t>
+    <t xml:space="preserve">2021-09-24 22:09:11</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -2979,34 +2979,34 @@
         <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>992.480540305325</v>
+        <v>910.445857038311</v>
       </c>
       <c r="E11" t="n">
-        <v>829.376172110714</v>
+        <v>746.351170283957</v>
       </c>
       <c r="F11" t="n">
-        <v>847.857352428721</v>
+        <v>760.816191810768</v>
       </c>
       <c r="G11" t="n">
-        <v>1216.15538687521</v>
+        <v>1110.66820853199</v>
       </c>
       <c r="H11" t="n">
-        <v>1262.26197515101</v>
+        <v>1150.1921545193</v>
       </c>
       <c r="I11" t="n">
-        <v>1409.07144641008</v>
+        <v>1278.85470039701</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.97505279195244</v>
+        <v>-2.18399996640716</v>
       </c>
       <c r="K11" t="n">
-        <v>4.08960587670131</v>
+        <v>4.29321753437852</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23000992441606</v>
+        <v>1.18514442428785</v>
       </c>
       <c r="M11" t="n">
-        <v>1.21588007392819</v>
+        <v>1.17856602910875</v>
       </c>
     </row>
     <row r="12">
@@ -3102,34 +3102,34 @@
         <v>71</v>
       </c>
       <c r="D14" t="n">
-        <v>1061.20835229185</v>
+        <v>1143.24303555886</v>
       </c>
       <c r="E14" t="n">
-        <v>945.613091837916</v>
+        <v>1028.63809366467</v>
       </c>
       <c r="F14" t="n">
-        <v>942.031573651345</v>
+        <v>1029.0727342693</v>
       </c>
       <c r="G14" t="n">
-        <v>1344.55694136105</v>
+        <v>1450.04411970427</v>
       </c>
       <c r="H14" t="n">
-        <v>1393.60390971536</v>
+        <v>1505.67373034707</v>
       </c>
       <c r="I14" t="n">
-        <v>1482.03434437023</v>
+        <v>1612.2510903833</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.27326891810321</v>
+        <v>-1.16684234416876</v>
       </c>
       <c r="K14" t="n">
-        <v>4.03229835551906</v>
+        <v>3.88392486044087</v>
       </c>
       <c r="L14" t="n">
-        <v>0.685925861819037</v>
+        <v>0.762793848895105</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15840813255688</v>
+        <v>1.19244116010608</v>
       </c>
     </row>
     <row r="15">

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-24 22:09:11</t>
+    <t xml:space="preserve">2021-09-27 10:44:24</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-27 10:44:24</t>
+    <t xml:space="preserve">2021-10-04 12:00:29</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">Subsectors</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass burning (CO2, CH4)</t>
+    <t xml:space="preserve">Biomass burning (CH4, N2O)</t>
   </si>
   <si>
     <t xml:space="preserve">Enteric Fermentation (CH4)</t>

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-04 12:00:29</t>
+    <t xml:space="preserve">2021-10-12 16:45:44</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -1553,34 +1553,34 @@
         <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89826752686084</v>
+        <v>2.00642716754084</v>
       </c>
       <c r="E5" t="n">
-        <v>2.01302911250047</v>
+        <v>2.14834784969047</v>
       </c>
       <c r="F5" t="n">
-        <v>2.03605111630764</v>
+        <v>2.16478916665764</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22804249380287</v>
+        <v>2.39734350823087</v>
       </c>
       <c r="H5" t="n">
-        <v>2.27088794788791</v>
+        <v>2.42369399191491</v>
       </c>
       <c r="I5" t="n">
-        <v>2.53267773751827</v>
+        <v>2.65875327649005</v>
       </c>
       <c r="J5" t="n">
-        <v>0.654342265318797</v>
+        <v>0.762262685914905</v>
       </c>
       <c r="K5" t="n">
-        <v>1.00626457576982</v>
+        <v>1.14021005303713</v>
       </c>
       <c r="L5" t="n">
-        <v>1.21966932213784</v>
+        <v>1.03380163432529</v>
       </c>
       <c r="M5" t="n">
-        <v>0.999219517967798</v>
+        <v>0.975422075295307</v>
       </c>
     </row>
     <row r="6">
@@ -1631,34 +1631,34 @@
         <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>38.1621299601302</v>
+        <v>38.2702896008102</v>
       </c>
       <c r="E7" t="n">
-        <v>40.4534491063264</v>
+        <v>40.5887678435164</v>
       </c>
       <c r="F7" t="n">
-        <v>42.0284666950164</v>
+        <v>42.1572047453664</v>
       </c>
       <c r="G7" t="n">
-        <v>50.7450608190765</v>
+        <v>50.9143618335045</v>
       </c>
       <c r="H7" t="n">
-        <v>52.3959394056302</v>
+        <v>52.5487454496572</v>
       </c>
       <c r="I7" t="n">
-        <v>58.9645492886405</v>
+        <v>59.0906248276123</v>
       </c>
       <c r="J7" t="n">
-        <v>0.649972620867589</v>
+        <v>0.655668014242194</v>
       </c>
       <c r="K7" t="n">
-        <v>2.11615882627398</v>
+        <v>2.11924866270339</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32095191070043</v>
+        <v>1.31221333468605</v>
       </c>
       <c r="M7" t="n">
-        <v>1.5116310960019</v>
+        <v>1.50920069350984</v>
       </c>
     </row>
   </sheetData>
@@ -1768,34 +1768,34 @@
         <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>9.79993593577126</v>
+        <v>9.90809557645126</v>
       </c>
       <c r="E3" t="n">
-        <v>11.6981509318181</v>
+        <v>11.8334696690081</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3335079924872</v>
+        <v>12.4622460428372</v>
       </c>
       <c r="G3" t="n">
-        <v>19.7212665657826</v>
+        <v>19.8905675802106</v>
       </c>
       <c r="H3" t="n">
-        <v>20.2624900934573</v>
+        <v>20.4152961374843</v>
       </c>
       <c r="I3" t="n">
-        <v>25.7143029398276</v>
+        <v>25.8403784787994</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98675553825374</v>
+        <v>1.99270301593384</v>
       </c>
       <c r="K3" t="n">
-        <v>5.35370137102751</v>
+        <v>5.33221236635733</v>
       </c>
       <c r="L3" t="n">
-        <v>2.68286873024786</v>
+        <v>2.65295725205066</v>
       </c>
       <c r="M3" t="n">
-        <v>3.38239859930056</v>
+        <v>3.36070712919201</v>
       </c>
     </row>
     <row r="4">
@@ -2108,34 +2108,34 @@
         <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>10.2238372263015</v>
+        <v>10.3319968669815</v>
       </c>
       <c r="E2" t="n">
-        <v>9.73513819003849</v>
+        <v>9.8704569272285</v>
       </c>
       <c r="F2" t="n">
-        <v>10.2578126202632</v>
+        <v>10.3865506706132</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6174068744511</v>
+        <v>11.7867078888791</v>
       </c>
       <c r="H2" t="n">
-        <v>11.1454889156402</v>
+        <v>11.2982949596672</v>
       </c>
       <c r="I2" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.542745594638672</v>
+        <v>-0.506484410007768</v>
       </c>
       <c r="K2" t="n">
-        <v>1.39255072373059</v>
+        <v>1.41503688084719</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59505661274093</v>
+        <v>1.55155407352756</v>
       </c>
       <c r="M2" t="n">
-        <v>0.791860454647852</v>
+        <v>0.789214918096182</v>
       </c>
     </row>
     <row r="3">
@@ -2358,34 +2358,34 @@
         <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>10.2238372263015</v>
+        <v>10.3319968669815</v>
       </c>
       <c r="E2" t="n">
-        <v>9.73513819003849</v>
+        <v>9.8704569272285</v>
       </c>
       <c r="F2" t="n">
-        <v>10.2578126202632</v>
+        <v>10.3865506706132</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6174068744511</v>
+        <v>11.7867078888791</v>
       </c>
       <c r="H2" t="n">
-        <v>11.1454889156402</v>
+        <v>11.2982949596672</v>
       </c>
       <c r="I2" t="n">
-        <v>12.8514554273919</v>
+        <v>12.9775309663637</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.542745594638672</v>
+        <v>-0.506484410007768</v>
       </c>
       <c r="K2" t="n">
-        <v>1.39255072373059</v>
+        <v>1.41503688084719</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59505661274093</v>
+        <v>1.55155407352756</v>
       </c>
       <c r="M2" t="n">
-        <v>0.791860454647852</v>
+        <v>0.789214918096182</v>
       </c>
     </row>
     <row r="3">
@@ -2692,34 +2692,34 @@
         <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>1080.80102056874</v>
+        <v>1106.45253736874</v>
       </c>
       <c r="E4" t="n">
-        <v>1141.8991764217</v>
+        <v>1174.8601644817</v>
       </c>
       <c r="F4" t="n">
-        <v>1153.37447374116</v>
+        <v>1184.64553720116</v>
       </c>
       <c r="G4" t="n">
-        <v>1285.39528196051</v>
+        <v>1323.40031903051</v>
       </c>
       <c r="H4" t="n">
-        <v>1298.83429958262</v>
+        <v>1332.79776548262</v>
       </c>
       <c r="I4" t="n">
-        <v>1429.75708637025</v>
+        <v>1455.80903462043</v>
       </c>
       <c r="J4" t="n">
-        <v>0.612874532621133</v>
+        <v>0.668783618158386</v>
       </c>
       <c r="K4" t="n">
-        <v>1.21143821456529</v>
+        <v>1.23827973721855</v>
       </c>
       <c r="L4" t="n">
-        <v>1.07279574397092</v>
+        <v>0.985731841069781</v>
       </c>
       <c r="M4" t="n">
-        <v>0.969504393175091</v>
+        <v>0.95070732804452</v>
       </c>
     </row>
     <row r="5">
@@ -2815,34 +2815,34 @@
         <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>223.87794466674</v>
+        <v>306.38606854674</v>
       </c>
       <c r="E7" t="n">
-        <v>255.654358596</v>
+        <v>358.012107726</v>
       </c>
       <c r="F7" t="n">
-        <v>247.96696854384</v>
+        <v>345.43395543384</v>
       </c>
       <c r="G7" t="n">
-        <v>288.5626689309</v>
+        <v>419.8586462889</v>
       </c>
       <c r="H7" t="n">
-        <v>301.9052139831</v>
+        <v>420.7477921101</v>
       </c>
       <c r="I7" t="n">
-        <v>342.983277350877</v>
+        <v>443.006868072477</v>
       </c>
       <c r="J7" t="n">
-        <v>1.48565392740367</v>
+        <v>1.74528673982151</v>
       </c>
       <c r="K7" t="n">
-        <v>1.69890035947065</v>
+        <v>2.19163361106631</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42752187192221</v>
+        <v>0.574440148560407</v>
       </c>
       <c r="M7" t="n">
-        <v>1.48183983117423</v>
+        <v>1.27963296545794</v>
       </c>
     </row>
     <row r="8">
@@ -6314,34 +6314,34 @@
         <v>149</v>
       </c>
       <c r="D65" t="n">
-        <v>3902.25164567551</v>
+        <v>4010.41128635551</v>
       </c>
       <c r="E65" t="n">
-        <v>5057.16783139689</v>
+        <v>5192.48656858689</v>
       </c>
       <c r="F65" t="n">
-        <v>5306.0783120267</v>
+        <v>5434.8163623767</v>
       </c>
       <c r="G65" t="n">
-        <v>10648.0084881614</v>
+        <v>10817.3095025894</v>
       </c>
       <c r="H65" t="n">
-        <v>11543.4170544956</v>
+        <v>11696.2230985226</v>
       </c>
       <c r="I65" t="n">
-        <v>14093.2930623421</v>
+        <v>14219.3686013139</v>
       </c>
       <c r="J65" t="n">
-        <v>2.92247771531347</v>
+        <v>2.91179732850562</v>
       </c>
       <c r="K65" t="n">
-        <v>8.0464559078802</v>
+        <v>7.94808225004415</v>
       </c>
       <c r="L65" t="n">
-        <v>2.24236802644617</v>
+        <v>2.19415906900959</v>
       </c>
       <c r="M65" t="n">
-        <v>4.52759022256934</v>
+        <v>4.46116760426569</v>
       </c>
     </row>
     <row r="66">

--- a/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
+++ b/Results/Public data/ipcc_ar6_data_growth_rates.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-12 16:45:44</t>
+    <t xml:space="preserve">2021-10-25 12:09:16</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
